--- a/compare-lists-output.xlsx
+++ b/compare-lists-output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="emac_20160520020826.csv" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="705">
   <si>
     <t>PCF Workshop City</t>
   </si>
@@ -2132,6 +2132,12 @@
   </si>
   <si>
     <t>Haseeb.Yousaf@autotrader.com</t>
+  </si>
+  <si>
+    <t>riju_mittal@infosys.com</t>
+  </si>
+  <si>
+    <t>francis_marzen@homedepot.com</t>
   </si>
 </sst>
 </file>
@@ -2190,10 +2196,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
@@ -2528,9 +2535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D876"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2561,10 +2570,10 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>41047.274074074077</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="3">
+        <v>41048.946863425925</v>
+      </c>
+      <c r="D2" s="3">
         <v>41041.38517361111</v>
       </c>
     </row>
@@ -2575,10 +2584,10 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>41046.955358796295</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>41039.246539351851</v>
       </c>
     </row>
@@ -2589,10 +2598,10 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>41047.142951388887</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3">
+        <v>41051.939328703702</v>
+      </c>
+      <c r="D4" s="3">
         <v>41039.241469907407</v>
       </c>
     </row>
@@ -2603,10 +2612,10 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>41046.838194444441</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3">
+        <v>41051.940497685187</v>
+      </c>
+      <c r="D5" s="3">
         <v>41039.266215277778</v>
       </c>
     </row>
@@ -2617,10 +2626,10 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>41047.4371875</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>41047.434351851851</v>
       </c>
     </row>
@@ -2631,10 +2640,10 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
-        <v>41047.622337962966</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="3">
+        <v>41051.957094907404</v>
+      </c>
+      <c r="D7" s="3">
         <v>41047.618483796294</v>
       </c>
     </row>
@@ -2645,10 +2654,10 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>41047.764525462961</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>41047.756226851852</v>
       </c>
     </row>
@@ -2659,10 +2668,10 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>41046.720625000002</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>41019.736261574071</v>
       </c>
     </row>
@@ -2673,10 +2682,10 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>41046.926342592589</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>41020.462569444448</v>
       </c>
     </row>
@@ -2687,10 +2696,10 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>41046.939120370371</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>41034.615370370368</v>
       </c>
     </row>
@@ -2701,10 +2710,10 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>41046.941354166665</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>41039.283877314818</v>
       </c>
     </row>
@@ -2715,10 +2724,10 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
-        <v>41047.000960648147</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="3">
+        <v>41051.944687499999</v>
+      </c>
+      <c r="D13" s="3">
         <v>41039.720011574071</v>
       </c>
     </row>
@@ -2729,10 +2738,10 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1">
-        <v>41047.468726851854</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="3">
+        <v>41051.9455787037</v>
+      </c>
+      <c r="D14" s="3">
         <v>41039.273877314816</v>
       </c>
     </row>
@@ -2743,10 +2752,10 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
-        <v>41047.476412037038</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="3">
+        <v>41048.943831018521</v>
+      </c>
+      <c r="D15" s="3">
         <v>41039.271018518521</v>
       </c>
     </row>
@@ -2757,10 +2766,10 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>41046.632384259261</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="3">
+        <v>41051.947453703702</v>
+      </c>
+      <c r="D16" s="3">
         <v>41039.286874999998</v>
       </c>
     </row>
@@ -2771,10 +2780,10 @@
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1">
-        <v>41047.268553240741</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="3">
+        <v>41051.947453703702</v>
+      </c>
+      <c r="D17" s="3">
         <v>41039.274247685185</v>
       </c>
     </row>
@@ -2785,10 +2794,10 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>41047.933148148149</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>41039.326354166667</v>
       </c>
     </row>
@@ -2799,10 +2808,10 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>41047.602395833332</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>41047.59815972222</v>
       </c>
     </row>
@@ -2813,10 +2822,10 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1">
-        <v>41047.933148148149</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="3">
+        <v>41051.947453703702</v>
+      </c>
+      <c r="D20" s="3">
         <v>41042.257465277777</v>
       </c>
     </row>
@@ -2827,11 +2836,11 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1">
-        <v>41046.849733796298</v>
-      </c>
-      <c r="D21" s="1">
-        <v>41044.24486111111</v>
+      <c r="C21" s="3">
+        <v>41051.954386574071</v>
+      </c>
+      <c r="D21" s="3">
+        <v>41051.413645833331</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2841,10 +2850,10 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1">
-        <v>41047.036770833336</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="3">
+        <v>41051.948275462964</v>
+      </c>
+      <c r="D22" s="3">
         <v>41039.226944444446</v>
       </c>
     </row>
@@ -2855,11 +2864,11 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1">
-        <v>41047.411168981482</v>
-      </c>
-      <c r="D23" s="1">
-        <v>41047.410995370374</v>
+      <c r="C23" s="3">
+        <v>41051.42454861111</v>
+      </c>
+      <c r="D23" s="3">
+        <v>41051.424432870372</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2869,10 +2878,10 @@
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1">
-        <v>41046.537418981483</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="3">
+        <v>41051.949155092596</v>
+      </c>
+      <c r="D24" s="3">
         <v>41043.334710648145</v>
       </c>
     </row>
@@ -2883,10 +2892,10 @@
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>41047.387199074074</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>41039.21371527778</v>
       </c>
     </row>
@@ -2897,10 +2906,10 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
-        <v>41047.491296296299</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="3">
+        <v>41051.955150462964</v>
+      </c>
+      <c r="D26" s="3">
         <v>41044.306759259256</v>
       </c>
     </row>
@@ -2911,11 +2920,11 @@
       <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1">
-        <v>41047.581458333334</v>
-      </c>
-      <c r="D27" s="1">
-        <v>41047.581400462965</v>
+      <c r="C27" s="3">
+        <v>41048.517384259256</v>
+      </c>
+      <c r="D27" s="3">
+        <v>41048.515231481484</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2925,10 +2934,10 @@
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="1">
-        <v>41047.149814814817</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="3">
+        <v>41051.95003472222</v>
+      </c>
+      <c r="D28" s="3">
         <v>41039.268171296295</v>
       </c>
     </row>
@@ -2939,10 +2948,10 @@
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>41046.999537037038</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>41039.261678240742</v>
       </c>
     </row>
@@ -2953,10 +2962,10 @@
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>41047.27380787037</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>41039.269583333335</v>
       </c>
     </row>
@@ -2967,11 +2976,11 @@
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="1">
-        <v>41047.933148148149</v>
-      </c>
-      <c r="D31" s="1">
-        <v>41041.473553240743</v>
+      <c r="C31" s="3">
+        <v>41051.950046296297</v>
+      </c>
+      <c r="D31" s="3">
+        <v>41051.552129629628</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2981,11 +2990,11 @@
       <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="1">
-        <v>41046.893553240741</v>
-      </c>
-      <c r="D32" s="1">
-        <v>41044.288460648146</v>
+      <c r="C32" s="3">
+        <v>41051.955150462964</v>
+      </c>
+      <c r="D32" s="3">
+        <v>41048.512337962966</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2995,10 +3004,10 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1">
-        <v>41046.898993055554</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="3">
+        <v>41051.950046296297</v>
+      </c>
+      <c r="D33" s="3">
         <v>41042.814895833333</v>
       </c>
     </row>
@@ -3009,10 +3018,10 @@
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>41046.735960648148</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>41046.629930555559</v>
       </c>
     </row>
@@ -3023,10 +3032,10 @@
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>41047.945891203701</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>41039.962083333332</v>
       </c>
     </row>
@@ -3037,10 +3046,10 @@
       <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>41047.944976851853</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>41017.373414351852</v>
       </c>
     </row>
@@ -3051,10 +3060,10 @@
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="1">
-        <v>41047.933136574073</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="3">
+        <v>41051.950046296297</v>
+      </c>
+      <c r="D37" s="3">
         <v>41045.404236111113</v>
       </c>
     </row>
@@ -3065,10 +3074,10 @@
       <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="1">
-        <v>41046.953773148147</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="3">
+        <v>41051.950046296297</v>
+      </c>
+      <c r="D38" s="3">
         <v>41039.962106481478</v>
       </c>
     </row>
@@ -3079,10 +3088,10 @@
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="1">
-        <v>41047.09202546296</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="3">
+        <v>41051.952673611115</v>
+      </c>
+      <c r="D39" s="3">
         <v>41039.264421296299</v>
       </c>
     </row>
@@ -3093,10 +3102,10 @@
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="1">
-        <v>41047.461388888885</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="3">
+        <v>41048.928217592591</v>
+      </c>
+      <c r="D40" s="3">
         <v>41047.449594907404</v>
       </c>
     </row>
@@ -3107,10 +3116,10 @@
       <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="1">
-        <v>41047.150810185187</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="3">
+        <v>41051.955150462964</v>
+      </c>
+      <c r="D41" s="3">
         <v>41046.198229166665</v>
       </c>
     </row>
@@ -3121,10 +3130,10 @@
       <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="1">
-        <v>41047.933148148149</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="3">
+        <v>41051.952673611115</v>
+      </c>
+      <c r="D42" s="3">
         <v>41039.214120370372</v>
       </c>
     </row>
@@ -3135,10 +3144,10 @@
       <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="1">
-        <v>41046.943506944444</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="3">
+        <v>41051.952685185184</v>
+      </c>
+      <c r="D43" s="3">
         <v>41039.268854166665</v>
       </c>
     </row>
@@ -3149,10 +3158,10 @@
       <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="1">
-        <v>41046.972986111112</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="3">
+        <v>41051.952685185184</v>
+      </c>
+      <c r="D44" s="3">
         <v>41004.707754629628</v>
       </c>
     </row>
@@ -3163,10 +3172,10 @@
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="1">
-        <v>41046.790856481479</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="3">
+        <v>41051.952685185184</v>
+      </c>
+      <c r="D45" s="3">
         <v>41016.334907407407</v>
       </c>
     </row>
@@ -3177,10 +3186,10 @@
       <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="1">
-        <v>41047.933148148149</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="3">
+        <v>41051.952685185184</v>
+      </c>
+      <c r="D46" s="3">
         <v>41039.238020833334</v>
       </c>
     </row>
@@ -3191,10 +3200,10 @@
       <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>41047.077627314815</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>41013.221145833333</v>
       </c>
     </row>
@@ -3205,10 +3214,10 @@
       <c r="B48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>41046.975162037037</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>41031.354363425926</v>
       </c>
     </row>
@@ -3219,10 +3228,10 @@
       <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>41047.077025462961</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>41019.732291666667</v>
       </c>
     </row>
@@ -3233,10 +3242,10 @@
       <c r="B50" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="1">
-        <v>41047.261238425926</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="3">
+        <v>41051.953518518516</v>
+      </c>
+      <c r="D50" s="3">
         <v>41034.328750000001</v>
       </c>
     </row>
@@ -3247,10 +3256,10 @@
       <c r="B51" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="1">
-        <v>41047.156782407408</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" s="3">
+        <v>41051.953518518516</v>
+      </c>
+      <c r="D51" s="3">
         <v>41040.331967592596</v>
       </c>
     </row>
@@ -3261,10 +3270,10 @@
       <c r="B52" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="1">
-        <v>41047.446736111109</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="3">
+        <v>41048.529953703706</v>
+      </c>
+      <c r="D52" s="3">
         <v>41021.549097222225</v>
       </c>
     </row>
@@ -3275,10 +3284,10 @@
       <c r="B53" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="1">
-        <v>41047.933148148149</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="3">
+        <v>41051.953530092593</v>
+      </c>
+      <c r="D53" s="3">
         <v>41041.253877314812</v>
       </c>
     </row>
@@ -3289,10 +3298,10 @@
       <c r="B54" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="1">
-        <v>41046.923078703701</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54" s="3">
+        <v>41051.955150462964</v>
+      </c>
+      <c r="D54" s="3">
         <v>41044.587719907409</v>
       </c>
     </row>
@@ -3303,10 +3312,10 @@
       <c r="B55" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>41047.945891203701</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>41039.962094907409</v>
       </c>
     </row>
@@ -3317,10 +3326,10 @@
       <c r="B56" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
         <v>41047.142384259256</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>41039.281493055554</v>
       </c>
     </row>
@@ -3331,10 +3340,10 @@
       <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="3">
         <v>41047.945902777778</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>41040.600798611114</v>
       </c>
     </row>
@@ -3345,10 +3354,10 @@
       <c r="B58" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="1">
-        <v>41047.156782407408</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D58" s="3">
         <v>41039.210682870369</v>
       </c>
     </row>
@@ -3359,10 +3368,10 @@
       <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
         <v>41047.261250000003</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>41039.21502314815</v>
       </c>
     </row>
@@ -3373,10 +3382,10 @@
       <c r="B60" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="3">
         <v>41047.150810185187</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>41039.21670138889</v>
       </c>
     </row>
@@ -3387,10 +3396,10 @@
       <c r="B61" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="3">
         <v>41047.150324074071</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>41039.229097222225</v>
       </c>
     </row>
@@ -3401,10 +3410,10 @@
       <c r="B62" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>41047.149305555555</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>41039.234872685185</v>
       </c>
     </row>
@@ -3415,10 +3424,10 @@
       <c r="B63" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="1">
-        <v>41047.297418981485</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D63" s="3">
         <v>41039.235208333332</v>
       </c>
     </row>
@@ -3429,10 +3438,10 @@
       <c r="B64" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="1">
-        <v>41047.142951388887</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D64" s="3">
         <v>41039.245925925927</v>
       </c>
     </row>
@@ -3443,10 +3452,10 @@
       <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="1">
-        <v>41047.268541666665</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65" s="3">
+        <v>41051.955150462964</v>
+      </c>
+      <c r="D65" s="3">
         <v>41044.264247685183</v>
       </c>
     </row>
@@ -3457,10 +3466,10 @@
       <c r="B66" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="1">
-        <v>41047.268541666665</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C66" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D66" s="3">
         <v>41039.259814814817</v>
       </c>
     </row>
@@ -3471,10 +3480,10 @@
       <c r="B67" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="3">
         <v>41047.268553240741</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>41039.259791666664</v>
       </c>
     </row>
@@ -3485,10 +3494,10 @@
       <c r="B68" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
         <v>41047.156770833331</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>41039.264374999999</v>
       </c>
     </row>
@@ -3499,10 +3508,10 @@
       <c r="B69" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="1">
-        <v>41047.157280092593</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D69" s="3">
         <v>41039.266412037039</v>
       </c>
     </row>
@@ -3513,10 +3522,10 @@
       <c r="B70" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="1">
-        <v>41047.142384259256</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D70" s="3">
         <v>41039.266226851854</v>
       </c>
     </row>
@@ -3527,10 +3536,10 @@
       <c r="B71" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="1">
-        <v>41047.150324074071</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D71" s="3">
         <v>41039.269594907404</v>
       </c>
     </row>
@@ -3541,10 +3550,10 @@
       <c r="B72" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
         <v>41047.150324074071</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>41039.270937499998</v>
       </c>
     </row>
@@ -3555,10 +3564,10 @@
       <c r="B73" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="1">
-        <v>41047.933148148149</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D73" s="3">
         <v>41039.276064814818</v>
       </c>
     </row>
@@ -3569,10 +3578,10 @@
       <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="3">
         <v>41047.149293981478</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <v>41039.280023148145</v>
       </c>
     </row>
@@ -3583,10 +3592,10 @@
       <c r="B75" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
         <v>41047.945902777778</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <v>41039.962175925924</v>
       </c>
     </row>
@@ -3597,10 +3606,10 @@
       <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="1">
-        <v>41047.933148148149</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="C76" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D76" s="3">
         <v>41039.27915509259</v>
       </c>
     </row>
@@ -3611,10 +3620,10 @@
       <c r="B77" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="1">
-        <v>41047.26284722222</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="C77" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D77" s="3">
         <v>41039.962187500001</v>
       </c>
     </row>
@@ -3625,10 +3634,10 @@
       <c r="B78" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
         <v>41047.142384259256</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="3">
         <v>41039.290648148148</v>
       </c>
     </row>
@@ -3639,10 +3648,10 @@
       <c r="B79" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="3">
         <v>41047.142384259256</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="3">
         <v>41039.28460648148</v>
       </c>
     </row>
@@ -3653,10 +3662,10 @@
       <c r="B80" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="1">
-        <v>41047.141851851855</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="C80" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D80" s="3">
         <v>41039.285671296297</v>
       </c>
     </row>
@@ -3667,11 +3676,11 @@
       <c r="B81" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="1">
-        <v>41047.296817129631</v>
-      </c>
-      <c r="D81" s="1">
-        <v>41039.293020833335</v>
+      <c r="C81" s="3">
+        <v>41051.302511574075</v>
+      </c>
+      <c r="D81" s="3">
+        <v>41051.300439814811</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3681,10 +3690,10 @@
       <c r="B82" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
         <v>41047.150324074071</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>41039.442696759259</v>
       </c>
     </row>
@@ -3695,10 +3704,10 @@
       <c r="B83" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="3">
         <v>41047.278483796297</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>41039.320821759262</v>
       </c>
     </row>
@@ -3709,10 +3718,10 @@
       <c r="B84" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="3">
         <v>41047.945891203701</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="3">
         <v>41039.297037037039</v>
       </c>
     </row>
@@ -3723,10 +3732,10 @@
       <c r="B85" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="1">
-        <v>41047.156770833331</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="C85" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D85" s="3">
         <v>41039.366469907407</v>
       </c>
     </row>
@@ -3737,10 +3746,10 @@
       <c r="B86" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="3">
         <v>41047.273819444446</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>41039.294907407406</v>
       </c>
     </row>
@@ -3751,10 +3760,10 @@
       <c r="B87" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="1">
-        <v>41047.261250000003</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D87" s="3">
         <v>41039.962187500001</v>
       </c>
     </row>
@@ -3765,10 +3774,10 @@
       <c r="B88" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
         <v>41047.945902777778</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>41039.962175925924</v>
       </c>
     </row>
@@ -3779,10 +3788,10 @@
       <c r="B89" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="1">
-        <v>41047.149305555555</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C89" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D89" s="3">
         <v>41040.246631944443</v>
       </c>
     </row>
@@ -3793,10 +3802,10 @@
       <c r="B90" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="3">
         <v>41047.945902777778</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>41044.308171296296</v>
       </c>
     </row>
@@ -3807,10 +3816,10 @@
       <c r="B91" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="1">
-        <v>41047.156770833331</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="C91" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D91" s="3">
         <v>41039.962187500001</v>
       </c>
     </row>
@@ -3821,10 +3830,10 @@
       <c r="B92" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="3">
         <v>41047.945902777778</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="3">
         <v>41039.962187500001</v>
       </c>
     </row>
@@ -3835,10 +3844,10 @@
       <c r="B93" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="1">
-        <v>41047.142372685186</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="C93" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D93" s="3">
         <v>41039.307986111111</v>
       </c>
     </row>
@@ -3849,10 +3858,10 @@
       <c r="B94" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="1">
-        <v>41047.295497685183</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="C94" s="3">
+        <v>41048.946863425925</v>
+      </c>
+      <c r="D94" s="3">
         <v>41039.30914351852</v>
       </c>
     </row>
@@ -3863,10 +3872,10 @@
       <c r="B95" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="3">
         <v>41047.297418981485</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="3">
         <v>41039.314988425926</v>
       </c>
     </row>
@@ -3877,10 +3886,10 @@
       <c r="B96" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
         <v>41047.157280092593</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="3">
         <v>41039.331585648149</v>
       </c>
     </row>
@@ -3891,10 +3900,10 @@
       <c r="B97" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="1">
-        <v>41047.149826388886</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D97" s="3">
         <v>41039.338645833333</v>
       </c>
     </row>
@@ -3905,10 +3914,10 @@
       <c r="B98" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
         <v>41047.149305555555</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>41039.344837962963</v>
       </c>
     </row>
@@ -3919,10 +3928,10 @@
       <c r="B99" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
         <v>41047.295497685183</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>41039.346805555557</v>
       </c>
     </row>
@@ -3933,10 +3942,10 @@
       <c r="B100" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="1">
-        <v>41047.267916666664</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C100" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D100" s="3">
         <v>41039.361527777779</v>
       </c>
     </row>
@@ -3947,10 +3956,10 @@
       <c r="B101" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
         <v>41047.149293981478</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="3">
         <v>41039.361666666664</v>
       </c>
     </row>
@@ -3961,10 +3970,10 @@
       <c r="B102" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="1">
-        <v>41047.262835648151</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="C102" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D102" s="3">
         <v>41039.447442129633</v>
       </c>
     </row>
@@ -3975,10 +3984,10 @@
       <c r="B103" t="s">
         <v>107</v>
       </c>
-      <c r="C103" s="1">
-        <v>41047.150821759256</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="C103" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D103" s="3">
         <v>41039.498576388891</v>
       </c>
     </row>
@@ -3989,10 +3998,10 @@
       <c r="B104" t="s">
         <v>108</v>
       </c>
-      <c r="C104" s="1">
-        <v>41047.267916666664</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C104" s="3">
+        <v>41051.953541666669</v>
+      </c>
+      <c r="D104" s="3">
         <v>41039.435717592591</v>
       </c>
     </row>
@@ -4003,11 +4012,11 @@
       <c r="B105" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="1">
-        <v>41047.297418981485</v>
-      </c>
-      <c r="D105" s="1">
-        <v>41044.367060185185</v>
+      <c r="C105" s="3">
+        <v>41051.955150462964</v>
+      </c>
+      <c r="D105" s="3">
+        <v>41048.531724537039</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4017,10 +4026,10 @@
       <c r="B106" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="1">
-        <v>41047.278483796297</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="C106" s="3">
+        <v>41051.954375000001</v>
+      </c>
+      <c r="D106" s="3">
         <v>41039.482546296298</v>
       </c>
     </row>
@@ -4031,10 +4040,10 @@
       <c r="B107" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="3">
         <v>41047.156782407408</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="3">
         <v>41039.50372685185</v>
       </c>
     </row>
@@ -4045,10 +4054,10 @@
       <c r="B108" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="1">
-        <v>41047.2968287037</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="C108" s="3">
+        <v>41051.954375000001</v>
+      </c>
+      <c r="D108" s="3">
         <v>41039.500358796293</v>
       </c>
     </row>
@@ -4059,10 +4068,10 @@
       <c r="B109" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="3">
         <v>41047.156319444446</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="3">
         <v>41045.773379629631</v>
       </c>
     </row>
@@ -4073,10 +4082,10 @@
       <c r="B110" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="1">
-        <v>41047.274074074077</v>
-      </c>
-      <c r="D110" s="1">
+      <c r="C110" s="3">
+        <v>41051.954375000001</v>
+      </c>
+      <c r="D110" s="3">
         <v>41040.472349537034</v>
       </c>
     </row>
@@ -4087,10 +4096,10 @@
       <c r="B111" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="3">
         <v>41047.297418981485</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="3">
         <v>41045.339108796295</v>
       </c>
     </row>
@@ -4101,10 +4110,10 @@
       <c r="B112" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="3">
         <v>41047.157280092593</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="3">
         <v>41046.478171296294</v>
       </c>
     </row>
@@ -4115,10 +4124,10 @@
       <c r="B113" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="1">
-        <v>41047.933136574073</v>
-      </c>
-      <c r="D113" s="1">
+      <c r="C113" s="3">
+        <v>41051.954375000001</v>
+      </c>
+      <c r="D113" s="3">
         <v>41041.462175925924</v>
       </c>
     </row>
@@ -4129,10 +4138,10 @@
       <c r="B114" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="1">
-        <v>41047.933148148149</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="C114" s="3">
+        <v>41051.954375000001</v>
+      </c>
+      <c r="D114" s="3">
         <v>41046.407083333332</v>
       </c>
     </row>
@@ -4143,10 +4152,10 @@
       <c r="B115" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="1">
-        <v>41047.157280092593</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="C115" s="3">
+        <v>41049.931284722225</v>
+      </c>
+      <c r="D115" s="3">
         <v>41042.213125000002</v>
       </c>
     </row>
@@ -4157,10 +4166,10 @@
       <c r="B116" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="1">
-        <v>41047.141851851855</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="C116" s="3">
+        <v>41049.931284722225</v>
+      </c>
+      <c r="D116" s="3">
         <v>41042.215567129628</v>
       </c>
     </row>
@@ -4171,10 +4180,10 @@
       <c r="B117" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="1">
-        <v>41046.537418981483</v>
-      </c>
-      <c r="D117" s="1">
+      <c r="C117" s="3">
+        <v>41049.931284722225</v>
+      </c>
+      <c r="D117" s="3">
         <v>41042.793113425927</v>
       </c>
     </row>
@@ -4185,10 +4194,10 @@
       <c r="B118" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="3">
         <v>41046.537430555552</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="3">
         <v>41045.31627314815</v>
       </c>
     </row>
@@ -4199,10 +4208,10 @@
       <c r="B119" t="s">
         <v>123</v>
       </c>
-      <c r="C119" s="1">
-        <v>41046.537430555552</v>
-      </c>
-      <c r="D119" s="1">
+      <c r="C119" s="3">
+        <v>41051.95516203704</v>
+      </c>
+      <c r="D119" s="3">
         <v>41044.236284722225</v>
       </c>
     </row>
@@ -4213,10 +4222,10 @@
       <c r="B120" t="s">
         <v>124</v>
       </c>
-      <c r="C120" s="1">
-        <v>41046.537430555552</v>
-      </c>
-      <c r="D120" s="1">
+      <c r="C120" s="3">
+        <v>41051.95516203704</v>
+      </c>
+      <c r="D120" s="3">
         <v>41044.242777777778</v>
       </c>
     </row>
@@ -4227,10 +4236,10 @@
       <c r="B121" t="s">
         <v>125</v>
       </c>
-      <c r="C121" s="1">
-        <v>41046.537430555552</v>
-      </c>
-      <c r="D121" s="1">
+      <c r="C121" s="3">
+        <v>41051.95516203704</v>
+      </c>
+      <c r="D121" s="3">
         <v>41044.256261574075</v>
       </c>
     </row>
@@ -4241,10 +4250,10 @@
       <c r="B122" t="s">
         <v>126</v>
       </c>
-      <c r="C122" s="1">
-        <v>41046.537430555552</v>
-      </c>
-      <c r="D122" s="1">
+      <c r="C122" s="3">
+        <v>41048.529953703706</v>
+      </c>
+      <c r="D122" s="3">
         <v>41044.317546296297</v>
       </c>
     </row>
@@ -4255,10 +4264,10 @@
       <c r="B123" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="1">
-        <v>41046.537430555552</v>
-      </c>
-      <c r="D123" s="1">
+      <c r="C123" s="3">
+        <v>41051.95516203704</v>
+      </c>
+      <c r="D123" s="3">
         <v>41044.269074074073</v>
       </c>
     </row>
@@ -4269,10 +4278,10 @@
       <c r="B124" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="1">
-        <v>41046.537430555552</v>
-      </c>
-      <c r="D124" s="1">
+      <c r="C124" s="3">
+        <v>41051.95516203704</v>
+      </c>
+      <c r="D124" s="3">
         <v>41044.287638888891</v>
       </c>
     </row>
@@ -4283,10 +4292,10 @@
       <c r="B125" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="1">
-        <v>41046.537430555552</v>
-      </c>
-      <c r="D125" s="1">
+      <c r="C125" s="3">
+        <v>41051.95516203704</v>
+      </c>
+      <c r="D125" s="3">
         <v>41044.296238425923</v>
       </c>
     </row>
@@ -4297,10 +4306,10 @@
       <c r="B126" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="3">
         <v>41046.542013888888</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="3">
         <v>41045.274456018517</v>
       </c>
     </row>
@@ -4311,10 +4320,10 @@
       <c r="B127" t="s">
         <v>131</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="3">
         <v>41046.759594907409</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="3">
         <v>41046.759479166663</v>
       </c>
     </row>
@@ -4325,10 +4334,10 @@
       <c r="B128" t="s">
         <v>132</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="3">
         <v>41046.554456018515</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="3">
         <v>41046.547754629632</v>
       </c>
     </row>
@@ -4339,10 +4348,10 @@
       <c r="B129" t="s">
         <v>133</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="3">
         <v>41046.542013888888</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="3">
         <v>41045.597824074073</v>
       </c>
     </row>
@@ -4353,10 +4362,10 @@
       <c r="B130" t="s">
         <v>134</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="3">
         <v>41046.54246527778</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="3">
         <v>41046.373391203706</v>
       </c>
     </row>
@@ -4367,10 +4376,10 @@
       <c r="B131" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="3">
         <v>41046.574791666666</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="3">
         <v>41046.567083333335</v>
       </c>
     </row>
@@ -4381,10 +4390,10 @@
       <c r="B132" t="s">
         <v>136</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="3">
         <v>41047.469328703701</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="3">
         <v>41047.448379629626</v>
       </c>
     </row>
@@ -4395,10 +4404,10 @@
       <c r="B133" t="s">
         <v>137</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="3">
         <v>41047.619201388887</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="3">
         <v>41047.598263888889</v>
       </c>
     </row>
@@ -4406,15 +4415,4483 @@
       <c r="A134" t="s">
         <v>5</v>
       </c>
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="3">
         <v>41047.622083333335</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="3">
         <v>41047.601168981484</v>
       </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>703</v>
+      </c>
+      <c r="C135" s="3">
+        <v>41050.620995370373</v>
+      </c>
+      <c r="D135" s="3">
+        <v>41050.618622685186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>704</v>
+      </c>
+      <c r="C136" s="3">
+        <v>41051.361041666663</v>
+      </c>
+      <c r="D136" s="3">
+        <v>41051.340081018519</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2"/>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2"/>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="2"/>
+      <c r="D442" s="2"/>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="2"/>
+      <c r="D450" s="2"/>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="2"/>
+      <c r="D451" s="2"/>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="2"/>
+      <c r="D455" s="2"/>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1"/>
+      <c r="B461" s="1"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="2"/>
+      <c r="D463" s="2"/>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1"/>
+      <c r="B465" s="1"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
+      <c r="C466" s="2"/>
+      <c r="D466" s="2"/>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="2"/>
+      <c r="D467" s="2"/>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="2"/>
+      <c r="D468" s="2"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="2"/>
+      <c r="D469" s="2"/>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="2"/>
+      <c r="D470" s="2"/>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+      <c r="C471" s="2"/>
+      <c r="D471" s="2"/>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1"/>
+      <c r="B472" s="1"/>
+      <c r="C472" s="2"/>
+      <c r="D472" s="2"/>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1"/>
+      <c r="B473" s="1"/>
+      <c r="C473" s="2"/>
+      <c r="D473" s="2"/>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="2"/>
+      <c r="D474" s="2"/>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
+      <c r="C475" s="2"/>
+      <c r="D475" s="2"/>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="2"/>
+      <c r="D476" s="2"/>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1"/>
+      <c r="B477" s="1"/>
+      <c r="C477" s="2"/>
+      <c r="D477" s="2"/>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
+      <c r="C478" s="2"/>
+      <c r="D478" s="2"/>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+      <c r="C479" s="2"/>
+      <c r="D479" s="2"/>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="2"/>
+      <c r="D480" s="2"/>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1"/>
+      <c r="B481" s="1"/>
+      <c r="C481" s="2"/>
+      <c r="D481" s="2"/>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="2"/>
+      <c r="D482" s="2"/>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
+      <c r="C483" s="2"/>
+      <c r="D483" s="2"/>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="2"/>
+      <c r="D484" s="2"/>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="2"/>
+      <c r="D485" s="2"/>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="2"/>
+      <c r="D486" s="2"/>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1"/>
+      <c r="B487" s="1"/>
+      <c r="C487" s="2"/>
+      <c r="D487" s="2"/>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1"/>
+      <c r="B488" s="1"/>
+      <c r="C488" s="2"/>
+      <c r="D488" s="2"/>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="2"/>
+      <c r="D489" s="2"/>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1"/>
+      <c r="B490" s="1"/>
+      <c r="C490" s="2"/>
+      <c r="D490" s="2"/>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1"/>
+      <c r="B492" s="1"/>
+      <c r="C492" s="2"/>
+      <c r="D492" s="2"/>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="2"/>
+      <c r="D493" s="2"/>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1"/>
+      <c r="B496" s="1"/>
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1"/>
+      <c r="B499" s="1"/>
+      <c r="C499" s="2"/>
+      <c r="D499" s="2"/>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="2"/>
+      <c r="D500" s="2"/>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
+      <c r="C501" s="2"/>
+      <c r="D501" s="2"/>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
+      <c r="C502" s="2"/>
+      <c r="D502" s="2"/>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
+      <c r="C504" s="2"/>
+      <c r="D504" s="2"/>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+      <c r="C505" s="2"/>
+      <c r="D505" s="2"/>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
+      <c r="C508" s="2"/>
+      <c r="D508" s="2"/>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1"/>
+      <c r="B509" s="1"/>
+      <c r="C509" s="2"/>
+      <c r="D509" s="2"/>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1"/>
+      <c r="B512" s="1"/>
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1"/>
+      <c r="B514" s="1"/>
+      <c r="C514" s="2"/>
+      <c r="D514" s="2"/>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1"/>
+      <c r="B515" s="1"/>
+      <c r="C515" s="2"/>
+      <c r="D515" s="2"/>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1"/>
+      <c r="B516" s="1"/>
+      <c r="C516" s="2"/>
+      <c r="D516" s="2"/>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1"/>
+      <c r="B517" s="1"/>
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1"/>
+      <c r="B518" s="1"/>
+      <c r="C518" s="2"/>
+      <c r="D518" s="2"/>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1"/>
+      <c r="B519" s="1"/>
+      <c r="C519" s="2"/>
+      <c r="D519" s="2"/>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1"/>
+      <c r="B520" s="1"/>
+      <c r="C520" s="2"/>
+      <c r="D520" s="2"/>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1"/>
+      <c r="B521" s="1"/>
+      <c r="C521" s="2"/>
+      <c r="D521" s="2"/>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
+      <c r="C522" s="2"/>
+      <c r="D522" s="2"/>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
+      <c r="C523" s="2"/>
+      <c r="D523" s="2"/>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1"/>
+      <c r="B524" s="1"/>
+      <c r="C524" s="2"/>
+      <c r="D524" s="2"/>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
+      <c r="C525" s="2"/>
+      <c r="D525" s="2"/>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1"/>
+      <c r="B526" s="1"/>
+      <c r="C526" s="2"/>
+      <c r="D526" s="2"/>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
+      <c r="C527" s="2"/>
+      <c r="D527" s="2"/>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1"/>
+      <c r="B528" s="1"/>
+      <c r="C528" s="2"/>
+      <c r="D528" s="2"/>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
+      <c r="C529" s="2"/>
+      <c r="D529" s="2"/>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+      <c r="C530" s="2"/>
+      <c r="D530" s="2"/>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
+      <c r="C531" s="2"/>
+      <c r="D531" s="2"/>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
+      <c r="C532" s="2"/>
+      <c r="D532" s="2"/>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
+      <c r="C533" s="2"/>
+      <c r="D533" s="2"/>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+      <c r="C534" s="2"/>
+      <c r="D534" s="2"/>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1"/>
+      <c r="B535" s="1"/>
+      <c r="C535" s="2"/>
+      <c r="D535" s="2"/>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
+      <c r="C536" s="2"/>
+      <c r="D536" s="2"/>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
+      <c r="C537" s="2"/>
+      <c r="D537" s="2"/>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
+      <c r="C538" s="2"/>
+      <c r="D538" s="2"/>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1"/>
+      <c r="B539" s="1"/>
+      <c r="C539" s="2"/>
+      <c r="D539" s="2"/>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
+      <c r="C540" s="2"/>
+      <c r="D540" s="2"/>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
+      <c r="C541" s="2"/>
+      <c r="D541" s="2"/>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+      <c r="C542" s="2"/>
+      <c r="D542" s="2"/>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="1"/>
+      <c r="B543" s="1"/>
+      <c r="C543" s="2"/>
+      <c r="D543" s="2"/>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
+      <c r="C544" s="2"/>
+      <c r="D544" s="2"/>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
+      <c r="C545" s="2"/>
+      <c r="D545" s="2"/>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
+      <c r="C546" s="2"/>
+      <c r="D546" s="2"/>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1"/>
+      <c r="B547" s="1"/>
+      <c r="C547" s="2"/>
+      <c r="D547" s="2"/>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
+      <c r="C548" s="2"/>
+      <c r="D548" s="2"/>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1"/>
+      <c r="B549" s="1"/>
+      <c r="C549" s="2"/>
+      <c r="D549" s="2"/>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1"/>
+      <c r="B550" s="1"/>
+      <c r="C550" s="2"/>
+      <c r="D550" s="2"/>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
+      <c r="C551" s="2"/>
+      <c r="D551" s="2"/>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1"/>
+      <c r="B552" s="1"/>
+      <c r="C552" s="2"/>
+      <c r="D552" s="2"/>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
+      <c r="C553" s="2"/>
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1"/>
+      <c r="B554" s="1"/>
+      <c r="C554" s="2"/>
+      <c r="D554" s="2"/>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1"/>
+      <c r="B555" s="1"/>
+      <c r="C555" s="2"/>
+      <c r="D555" s="2"/>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
+      <c r="C556" s="2"/>
+      <c r="D556" s="2"/>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1"/>
+      <c r="B557" s="1"/>
+      <c r="C557" s="2"/>
+      <c r="D557" s="2"/>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
+      <c r="C558" s="2"/>
+      <c r="D558" s="2"/>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+      <c r="C559" s="2"/>
+      <c r="D559" s="2"/>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1"/>
+      <c r="B560" s="1"/>
+      <c r="C560" s="2"/>
+      <c r="D560" s="2"/>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1"/>
+      <c r="B561" s="1"/>
+      <c r="C561" s="2"/>
+      <c r="D561" s="2"/>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1"/>
+      <c r="B562" s="1"/>
+      <c r="C562" s="2"/>
+      <c r="D562" s="2"/>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
+      <c r="C563" s="2"/>
+      <c r="D563" s="2"/>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="1"/>
+      <c r="B564" s="1"/>
+      <c r="C564" s="2"/>
+      <c r="D564" s="2"/>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1"/>
+      <c r="B565" s="1"/>
+      <c r="C565" s="2"/>
+      <c r="D565" s="2"/>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="1"/>
+      <c r="B566" s="1"/>
+      <c r="C566" s="2"/>
+      <c r="D566" s="2"/>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="1"/>
+      <c r="B567" s="1"/>
+      <c r="C567" s="2"/>
+      <c r="D567" s="2"/>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="1"/>
+      <c r="B568" s="1"/>
+      <c r="C568" s="2"/>
+      <c r="D568" s="2"/>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
+      <c r="C569" s="2"/>
+      <c r="D569" s="2"/>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="1"/>
+      <c r="B570" s="1"/>
+      <c r="C570" s="2"/>
+      <c r="D570" s="2"/>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="1"/>
+      <c r="B571" s="1"/>
+      <c r="C571" s="2"/>
+      <c r="D571" s="2"/>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="1"/>
+      <c r="B572" s="1"/>
+      <c r="C572" s="2"/>
+      <c r="D572" s="2"/>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="1"/>
+      <c r="B573" s="1"/>
+      <c r="C573" s="2"/>
+      <c r="D573" s="2"/>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="1"/>
+      <c r="B574" s="1"/>
+      <c r="C574" s="2"/>
+      <c r="D574" s="2"/>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="1"/>
+      <c r="B575" s="1"/>
+      <c r="C575" s="2"/>
+      <c r="D575" s="2"/>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1"/>
+      <c r="B576" s="1"/>
+      <c r="C576" s="2"/>
+      <c r="D576" s="2"/>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
+      <c r="C577" s="2"/>
+      <c r="D577" s="2"/>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1"/>
+      <c r="B578" s="1"/>
+      <c r="C578" s="2"/>
+      <c r="D578" s="2"/>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="1"/>
+      <c r="B579" s="1"/>
+      <c r="C579" s="2"/>
+      <c r="D579" s="2"/>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1"/>
+      <c r="B580" s="1"/>
+      <c r="C580" s="2"/>
+      <c r="D580" s="2"/>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="1"/>
+      <c r="B581" s="1"/>
+      <c r="C581" s="2"/>
+      <c r="D581" s="2"/>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1"/>
+      <c r="B582" s="1"/>
+      <c r="C582" s="2"/>
+      <c r="D582" s="2"/>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="1"/>
+      <c r="B583" s="1"/>
+      <c r="C583" s="2"/>
+      <c r="D583" s="2"/>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="1"/>
+      <c r="B584" s="1"/>
+      <c r="C584" s="2"/>
+      <c r="D584" s="2"/>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="1"/>
+      <c r="B585" s="1"/>
+      <c r="C585" s="2"/>
+      <c r="D585" s="2"/>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="1"/>
+      <c r="B586" s="1"/>
+      <c r="C586" s="2"/>
+      <c r="D586" s="2"/>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="1"/>
+      <c r="B587" s="1"/>
+      <c r="C587" s="2"/>
+      <c r="D587" s="2"/>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
+      <c r="C588" s="2"/>
+      <c r="D588" s="2"/>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
+      <c r="C589" s="2"/>
+      <c r="D589" s="2"/>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="1"/>
+      <c r="B590" s="1"/>
+      <c r="C590" s="2"/>
+      <c r="D590" s="2"/>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="1"/>
+      <c r="B591" s="1"/>
+      <c r="C591" s="2"/>
+      <c r="D591" s="2"/>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
+      <c r="C592" s="2"/>
+      <c r="D592" s="2"/>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="1"/>
+      <c r="B593" s="1"/>
+      <c r="C593" s="2"/>
+      <c r="D593" s="2"/>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="1"/>
+      <c r="B594" s="1"/>
+      <c r="C594" s="2"/>
+      <c r="D594" s="2"/>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="1"/>
+      <c r="B595" s="1"/>
+      <c r="C595" s="2"/>
+      <c r="D595" s="2"/>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="1"/>
+      <c r="B596" s="1"/>
+      <c r="C596" s="2"/>
+      <c r="D596" s="2"/>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="1"/>
+      <c r="B597" s="1"/>
+      <c r="C597" s="2"/>
+      <c r="D597" s="2"/>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="1"/>
+      <c r="B598" s="1"/>
+      <c r="C598" s="2"/>
+      <c r="D598" s="2"/>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="1"/>
+      <c r="B599" s="1"/>
+      <c r="C599" s="2"/>
+      <c r="D599" s="2"/>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
+      <c r="C600" s="2"/>
+      <c r="D600" s="2"/>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="1"/>
+      <c r="B601" s="1"/>
+      <c r="C601" s="2"/>
+      <c r="D601" s="2"/>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="1"/>
+      <c r="B602" s="1"/>
+      <c r="C602" s="2"/>
+      <c r="D602" s="2"/>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="1"/>
+      <c r="B603" s="1"/>
+      <c r="C603" s="2"/>
+      <c r="D603" s="2"/>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="1"/>
+      <c r="B604" s="1"/>
+      <c r="C604" s="2"/>
+      <c r="D604" s="2"/>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="1"/>
+      <c r="B605" s="1"/>
+      <c r="C605" s="2"/>
+      <c r="D605" s="2"/>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="1"/>
+      <c r="B606" s="1"/>
+      <c r="C606" s="2"/>
+      <c r="D606" s="2"/>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="1"/>
+      <c r="B607" s="1"/>
+      <c r="C607" s="2"/>
+      <c r="D607" s="2"/>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="1"/>
+      <c r="B608" s="1"/>
+      <c r="C608" s="2"/>
+      <c r="D608" s="2"/>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="1"/>
+      <c r="B609" s="1"/>
+      <c r="C609" s="2"/>
+      <c r="D609" s="2"/>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="1"/>
+      <c r="B610" s="1"/>
+      <c r="C610" s="2"/>
+      <c r="D610" s="2"/>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="1"/>
+      <c r="B611" s="1"/>
+      <c r="C611" s="2"/>
+      <c r="D611" s="2"/>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="1"/>
+      <c r="B612" s="1"/>
+      <c r="C612" s="2"/>
+      <c r="D612" s="2"/>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="1"/>
+      <c r="B613" s="1"/>
+      <c r="C613" s="2"/>
+      <c r="D613" s="2"/>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="1"/>
+      <c r="B614" s="1"/>
+      <c r="C614" s="2"/>
+      <c r="D614" s="2"/>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="1"/>
+      <c r="B615" s="1"/>
+      <c r="C615" s="2"/>
+      <c r="D615" s="2"/>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="1"/>
+      <c r="B616" s="1"/>
+      <c r="C616" s="2"/>
+      <c r="D616" s="2"/>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="1"/>
+      <c r="B617" s="1"/>
+      <c r="C617" s="2"/>
+      <c r="D617" s="2"/>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="1"/>
+      <c r="B618" s="1"/>
+      <c r="C618" s="2"/>
+      <c r="D618" s="2"/>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="1"/>
+      <c r="B619" s="1"/>
+      <c r="C619" s="2"/>
+      <c r="D619" s="2"/>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="1"/>
+      <c r="B620" s="1"/>
+      <c r="C620" s="2"/>
+      <c r="D620" s="2"/>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" s="1"/>
+      <c r="B621" s="1"/>
+      <c r="C621" s="2"/>
+      <c r="D621" s="2"/>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" s="1"/>
+      <c r="B622" s="1"/>
+      <c r="C622" s="2"/>
+      <c r="D622" s="2"/>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="1"/>
+      <c r="B623" s="1"/>
+      <c r="C623" s="2"/>
+      <c r="D623" s="2"/>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="1"/>
+      <c r="B624" s="1"/>
+      <c r="C624" s="2"/>
+      <c r="D624" s="2"/>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" s="1"/>
+      <c r="B625" s="1"/>
+      <c r="C625" s="2"/>
+      <c r="D625" s="2"/>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="1"/>
+      <c r="B626" s="1"/>
+      <c r="C626" s="2"/>
+      <c r="D626" s="2"/>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" s="1"/>
+      <c r="B627" s="1"/>
+      <c r="C627" s="2"/>
+      <c r="D627" s="2"/>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="1"/>
+      <c r="B628" s="1"/>
+      <c r="C628" s="2"/>
+      <c r="D628" s="2"/>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="1"/>
+      <c r="B629" s="1"/>
+      <c r="C629" s="2"/>
+      <c r="D629" s="2"/>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="1"/>
+      <c r="B630" s="1"/>
+      <c r="C630" s="2"/>
+      <c r="D630" s="2"/>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="1"/>
+      <c r="B631" s="1"/>
+      <c r="C631" s="2"/>
+      <c r="D631" s="2"/>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" s="1"/>
+      <c r="B632" s="1"/>
+      <c r="C632" s="2"/>
+      <c r="D632" s="2"/>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" s="1"/>
+      <c r="B633" s="1"/>
+      <c r="C633" s="2"/>
+      <c r="D633" s="2"/>
+    </row>
+    <row r="634" spans="1:4">
+      <c r="A634" s="1"/>
+      <c r="B634" s="1"/>
+      <c r="C634" s="2"/>
+      <c r="D634" s="2"/>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" s="1"/>
+      <c r="B635" s="1"/>
+      <c r="C635" s="2"/>
+      <c r="D635" s="2"/>
+    </row>
+    <row r="636" spans="1:4">
+      <c r="A636" s="1"/>
+      <c r="B636" s="1"/>
+      <c r="C636" s="2"/>
+      <c r="D636" s="2"/>
+    </row>
+    <row r="637" spans="1:4">
+      <c r="A637" s="1"/>
+      <c r="B637" s="1"/>
+      <c r="C637" s="2"/>
+      <c r="D637" s="2"/>
+    </row>
+    <row r="638" spans="1:4">
+      <c r="A638" s="1"/>
+      <c r="B638" s="1"/>
+      <c r="C638" s="2"/>
+      <c r="D638" s="2"/>
+    </row>
+    <row r="639" spans="1:4">
+      <c r="A639" s="1"/>
+      <c r="B639" s="1"/>
+      <c r="C639" s="2"/>
+      <c r="D639" s="2"/>
+    </row>
+    <row r="640" spans="1:4">
+      <c r="A640" s="1"/>
+      <c r="B640" s="1"/>
+      <c r="C640" s="2"/>
+      <c r="D640" s="2"/>
+    </row>
+    <row r="641" spans="1:4">
+      <c r="A641" s="1"/>
+      <c r="B641" s="1"/>
+      <c r="C641" s="2"/>
+      <c r="D641" s="2"/>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" s="1"/>
+      <c r="B642" s="1"/>
+      <c r="C642" s="2"/>
+      <c r="D642" s="2"/>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" s="1"/>
+      <c r="B643" s="1"/>
+      <c r="C643" s="2"/>
+      <c r="D643" s="2"/>
+    </row>
+    <row r="644" spans="1:4">
+      <c r="A644" s="1"/>
+      <c r="B644" s="1"/>
+      <c r="C644" s="2"/>
+      <c r="D644" s="2"/>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" s="1"/>
+      <c r="B645" s="1"/>
+      <c r="C645" s="2"/>
+      <c r="D645" s="2"/>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="A646" s="1"/>
+      <c r="B646" s="1"/>
+      <c r="C646" s="2"/>
+      <c r="D646" s="2"/>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="A647" s="1"/>
+      <c r="B647" s="1"/>
+      <c r="C647" s="2"/>
+      <c r="D647" s="2"/>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" s="1"/>
+      <c r="B648" s="1"/>
+      <c r="C648" s="2"/>
+      <c r="D648" s="2"/>
+    </row>
+    <row r="649" spans="1:4">
+      <c r="A649" s="1"/>
+      <c r="B649" s="1"/>
+      <c r="C649" s="2"/>
+      <c r="D649" s="2"/>
+    </row>
+    <row r="650" spans="1:4">
+      <c r="A650" s="1"/>
+      <c r="B650" s="1"/>
+      <c r="C650" s="2"/>
+      <c r="D650" s="2"/>
+    </row>
+    <row r="651" spans="1:4">
+      <c r="A651" s="1"/>
+      <c r="B651" s="1"/>
+      <c r="C651" s="2"/>
+      <c r="D651" s="2"/>
+    </row>
+    <row r="652" spans="1:4">
+      <c r="A652" s="1"/>
+      <c r="B652" s="1"/>
+      <c r="C652" s="2"/>
+      <c r="D652" s="2"/>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" s="1"/>
+      <c r="B653" s="1"/>
+      <c r="C653" s="2"/>
+      <c r="D653" s="2"/>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" s="1"/>
+      <c r="B654" s="1"/>
+      <c r="C654" s="2"/>
+      <c r="D654" s="2"/>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" s="1"/>
+      <c r="B655" s="1"/>
+      <c r="C655" s="2"/>
+      <c r="D655" s="2"/>
+    </row>
+    <row r="656" spans="1:4">
+      <c r="A656" s="1"/>
+      <c r="B656" s="1"/>
+      <c r="C656" s="2"/>
+      <c r="D656" s="2"/>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" s="1"/>
+      <c r="B657" s="1"/>
+      <c r="C657" s="2"/>
+      <c r="D657" s="2"/>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" s="1"/>
+      <c r="B658" s="1"/>
+      <c r="C658" s="2"/>
+      <c r="D658" s="2"/>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" s="1"/>
+      <c r="B659" s="1"/>
+      <c r="C659" s="2"/>
+      <c r="D659" s="2"/>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" s="1"/>
+      <c r="B660" s="1"/>
+      <c r="C660" s="2"/>
+      <c r="D660" s="2"/>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" s="1"/>
+      <c r="B661" s="1"/>
+      <c r="C661" s="2"/>
+      <c r="D661" s="2"/>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" s="1"/>
+      <c r="B662" s="1"/>
+      <c r="C662" s="2"/>
+      <c r="D662" s="2"/>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" s="1"/>
+      <c r="B663" s="1"/>
+      <c r="C663" s="2"/>
+      <c r="D663" s="2"/>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" s="1"/>
+      <c r="B664" s="1"/>
+      <c r="C664" s="2"/>
+      <c r="D664" s="2"/>
+    </row>
+    <row r="665" spans="1:4">
+      <c r="A665" s="1"/>
+      <c r="B665" s="1"/>
+      <c r="C665" s="2"/>
+      <c r="D665" s="2"/>
+    </row>
+    <row r="666" spans="1:4">
+      <c r="A666" s="1"/>
+      <c r="B666" s="1"/>
+      <c r="C666" s="2"/>
+      <c r="D666" s="2"/>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" s="1"/>
+      <c r="B667" s="1"/>
+      <c r="C667" s="2"/>
+      <c r="D667" s="2"/>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" s="1"/>
+      <c r="B668" s="1"/>
+      <c r="C668" s="2"/>
+      <c r="D668" s="2"/>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" s="1"/>
+      <c r="B669" s="1"/>
+      <c r="C669" s="2"/>
+      <c r="D669" s="2"/>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" s="1"/>
+      <c r="B670" s="1"/>
+      <c r="C670" s="2"/>
+      <c r="D670" s="2"/>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" s="1"/>
+      <c r="B671" s="1"/>
+      <c r="C671" s="2"/>
+      <c r="D671" s="2"/>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" s="1"/>
+      <c r="B672" s="1"/>
+      <c r="C672" s="2"/>
+      <c r="D672" s="2"/>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" s="1"/>
+      <c r="B673" s="1"/>
+      <c r="C673" s="2"/>
+      <c r="D673" s="2"/>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" s="1"/>
+      <c r="B674" s="1"/>
+      <c r="C674" s="2"/>
+      <c r="D674" s="2"/>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" s="1"/>
+      <c r="B675" s="1"/>
+      <c r="C675" s="2"/>
+      <c r="D675" s="2"/>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" s="1"/>
+      <c r="B676" s="1"/>
+      <c r="C676" s="2"/>
+      <c r="D676" s="2"/>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="1"/>
+      <c r="B677" s="1"/>
+      <c r="C677" s="2"/>
+      <c r="D677" s="2"/>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="1"/>
+      <c r="B678" s="1"/>
+      <c r="C678" s="2"/>
+      <c r="D678" s="2"/>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" s="1"/>
+      <c r="B679" s="1"/>
+      <c r="C679" s="2"/>
+      <c r="D679" s="2"/>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" s="1"/>
+      <c r="B680" s="1"/>
+      <c r="C680" s="2"/>
+      <c r="D680" s="2"/>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" s="1"/>
+      <c r="B681" s="1"/>
+      <c r="C681" s="2"/>
+      <c r="D681" s="2"/>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" s="1"/>
+      <c r="B682" s="1"/>
+      <c r="C682" s="2"/>
+      <c r="D682" s="2"/>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" s="1"/>
+      <c r="B683" s="1"/>
+      <c r="C683" s="2"/>
+      <c r="D683" s="2"/>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="1"/>
+      <c r="B684" s="1"/>
+      <c r="C684" s="2"/>
+      <c r="D684" s="2"/>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" s="1"/>
+      <c r="B685" s="1"/>
+      <c r="C685" s="2"/>
+      <c r="D685" s="2"/>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" s="1"/>
+      <c r="B686" s="1"/>
+      <c r="C686" s="2"/>
+      <c r="D686" s="2"/>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="1"/>
+      <c r="B687" s="1"/>
+      <c r="C687" s="2"/>
+      <c r="D687" s="2"/>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="1"/>
+      <c r="B688" s="1"/>
+      <c r="C688" s="2"/>
+      <c r="D688" s="2"/>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" s="1"/>
+      <c r="B689" s="1"/>
+      <c r="C689" s="2"/>
+      <c r="D689" s="2"/>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" s="1"/>
+      <c r="B690" s="1"/>
+      <c r="C690" s="2"/>
+      <c r="D690" s="2"/>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="1"/>
+      <c r="B691" s="1"/>
+      <c r="C691" s="2"/>
+      <c r="D691" s="2"/>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="1"/>
+      <c r="B692" s="1"/>
+      <c r="C692" s="2"/>
+      <c r="D692" s="2"/>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="1"/>
+      <c r="B693" s="1"/>
+      <c r="C693" s="2"/>
+      <c r="D693" s="2"/>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="1"/>
+      <c r="B694" s="1"/>
+      <c r="C694" s="2"/>
+      <c r="D694" s="2"/>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="1"/>
+      <c r="B695" s="1"/>
+      <c r="C695" s="2"/>
+      <c r="D695" s="2"/>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="1"/>
+      <c r="B696" s="1"/>
+      <c r="C696" s="2"/>
+      <c r="D696" s="2"/>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" s="1"/>
+      <c r="B697" s="1"/>
+      <c r="C697" s="2"/>
+      <c r="D697" s="2"/>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="1"/>
+      <c r="B698" s="1"/>
+      <c r="C698" s="2"/>
+      <c r="D698" s="2"/>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="1"/>
+      <c r="B699" s="1"/>
+      <c r="C699" s="2"/>
+      <c r="D699" s="2"/>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="1"/>
+      <c r="B700" s="1"/>
+      <c r="C700" s="2"/>
+      <c r="D700" s="2"/>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" s="1"/>
+      <c r="B701" s="1"/>
+      <c r="C701" s="2"/>
+      <c r="D701" s="2"/>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" s="1"/>
+      <c r="B702" s="1"/>
+      <c r="C702" s="2"/>
+      <c r="D702" s="2"/>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" s="1"/>
+      <c r="B703" s="1"/>
+      <c r="C703" s="2"/>
+      <c r="D703" s="2"/>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" s="1"/>
+      <c r="B704" s="1"/>
+      <c r="C704" s="2"/>
+      <c r="D704" s="2"/>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" s="1"/>
+      <c r="B705" s="1"/>
+      <c r="C705" s="2"/>
+      <c r="D705" s="2"/>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" s="1"/>
+      <c r="B706" s="1"/>
+      <c r="C706" s="2"/>
+      <c r="D706" s="2"/>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" s="1"/>
+      <c r="B707" s="1"/>
+      <c r="C707" s="2"/>
+      <c r="D707" s="2"/>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" s="1"/>
+      <c r="B708" s="1"/>
+      <c r="C708" s="2"/>
+      <c r="D708" s="2"/>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" s="1"/>
+      <c r="B709" s="1"/>
+      <c r="C709" s="2"/>
+      <c r="D709" s="2"/>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" s="1"/>
+      <c r="B710" s="1"/>
+      <c r="C710" s="2"/>
+      <c r="D710" s="2"/>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="1"/>
+      <c r="B711" s="1"/>
+      <c r="C711" s="2"/>
+      <c r="D711" s="2"/>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="1"/>
+      <c r="B712" s="1"/>
+      <c r="C712" s="2"/>
+      <c r="D712" s="2"/>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" s="1"/>
+      <c r="B713" s="1"/>
+      <c r="C713" s="2"/>
+      <c r="D713" s="2"/>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" s="1"/>
+      <c r="B714" s="1"/>
+      <c r="C714" s="2"/>
+      <c r="D714" s="2"/>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" s="1"/>
+      <c r="B715" s="1"/>
+      <c r="C715" s="2"/>
+      <c r="D715" s="2"/>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="1"/>
+      <c r="B716" s="1"/>
+      <c r="C716" s="2"/>
+      <c r="D716" s="2"/>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" s="1"/>
+      <c r="B717" s="1"/>
+      <c r="C717" s="2"/>
+      <c r="D717" s="2"/>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="1"/>
+      <c r="B718" s="1"/>
+      <c r="C718" s="2"/>
+      <c r="D718" s="2"/>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="1"/>
+      <c r="B719" s="1"/>
+      <c r="C719" s="2"/>
+      <c r="D719" s="2"/>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" s="1"/>
+      <c r="B720" s="1"/>
+      <c r="C720" s="2"/>
+      <c r="D720" s="2"/>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" s="1"/>
+      <c r="B721" s="1"/>
+      <c r="C721" s="2"/>
+      <c r="D721" s="2"/>
+    </row>
+    <row r="722" spans="1:4">
+      <c r="A722" s="1"/>
+      <c r="B722" s="1"/>
+      <c r="C722" s="2"/>
+      <c r="D722" s="2"/>
+    </row>
+    <row r="723" spans="1:4">
+      <c r="A723" s="1"/>
+      <c r="B723" s="1"/>
+      <c r="C723" s="2"/>
+      <c r="D723" s="2"/>
+    </row>
+    <row r="724" spans="1:4">
+      <c r="A724" s="1"/>
+      <c r="B724" s="1"/>
+      <c r="C724" s="2"/>
+      <c r="D724" s="2"/>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" s="1"/>
+      <c r="B725" s="1"/>
+      <c r="C725" s="2"/>
+      <c r="D725" s="2"/>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" s="1"/>
+      <c r="B726" s="1"/>
+      <c r="C726" s="2"/>
+      <c r="D726" s="2"/>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" s="1"/>
+      <c r="B727" s="1"/>
+      <c r="C727" s="2"/>
+      <c r="D727" s="2"/>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" s="1"/>
+      <c r="B728" s="1"/>
+      <c r="C728" s="2"/>
+      <c r="D728" s="2"/>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" s="1"/>
+      <c r="B729" s="1"/>
+      <c r="C729" s="2"/>
+      <c r="D729" s="2"/>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" s="1"/>
+      <c r="B730" s="1"/>
+      <c r="C730" s="2"/>
+      <c r="D730" s="2"/>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" s="1"/>
+      <c r="B731" s="1"/>
+      <c r="C731" s="2"/>
+      <c r="D731" s="2"/>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" s="1"/>
+      <c r="B732" s="1"/>
+      <c r="C732" s="2"/>
+      <c r="D732" s="2"/>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" s="1"/>
+      <c r="B733" s="1"/>
+      <c r="C733" s="2"/>
+      <c r="D733" s="2"/>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" s="1"/>
+      <c r="B734" s="1"/>
+      <c r="C734" s="2"/>
+      <c r="D734" s="2"/>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" s="1"/>
+      <c r="B735" s="1"/>
+      <c r="C735" s="2"/>
+      <c r="D735" s="2"/>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" s="1"/>
+      <c r="B736" s="1"/>
+      <c r="C736" s="2"/>
+      <c r="D736" s="2"/>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="1"/>
+      <c r="B737" s="1"/>
+      <c r="C737" s="2"/>
+      <c r="D737" s="2"/>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="1"/>
+      <c r="B738" s="1"/>
+      <c r="C738" s="2"/>
+      <c r="D738" s="2"/>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="1"/>
+      <c r="B739" s="1"/>
+      <c r="C739" s="2"/>
+      <c r="D739" s="2"/>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" s="1"/>
+      <c r="B740" s="1"/>
+      <c r="C740" s="2"/>
+      <c r="D740" s="2"/>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" s="1"/>
+      <c r="B741" s="1"/>
+      <c r="C741" s="2"/>
+      <c r="D741" s="2"/>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" s="1"/>
+      <c r="B742" s="1"/>
+      <c r="C742" s="2"/>
+      <c r="D742" s="2"/>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" s="1"/>
+      <c r="B743" s="1"/>
+      <c r="C743" s="2"/>
+      <c r="D743" s="2"/>
+    </row>
+    <row r="744" spans="1:4">
+      <c r="A744" s="1"/>
+      <c r="B744" s="1"/>
+      <c r="C744" s="2"/>
+      <c r="D744" s="2"/>
+    </row>
+    <row r="745" spans="1:4">
+      <c r="A745" s="1"/>
+      <c r="B745" s="1"/>
+      <c r="C745" s="2"/>
+      <c r="D745" s="2"/>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" s="1"/>
+      <c r="B746" s="1"/>
+      <c r="C746" s="2"/>
+      <c r="D746" s="2"/>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" s="1"/>
+      <c r="B747" s="1"/>
+      <c r="C747" s="2"/>
+      <c r="D747" s="2"/>
+    </row>
+    <row r="748" spans="1:4">
+      <c r="A748" s="1"/>
+      <c r="B748" s="1"/>
+      <c r="C748" s="2"/>
+      <c r="D748" s="2"/>
+    </row>
+    <row r="749" spans="1:4">
+      <c r="A749" s="1"/>
+      <c r="B749" s="1"/>
+      <c r="C749" s="2"/>
+      <c r="D749" s="2"/>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" s="1"/>
+      <c r="B750" s="1"/>
+      <c r="C750" s="2"/>
+      <c r="D750" s="2"/>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" s="1"/>
+      <c r="B751" s="1"/>
+      <c r="C751" s="2"/>
+      <c r="D751" s="2"/>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="1"/>
+      <c r="B752" s="1"/>
+      <c r="C752" s="2"/>
+      <c r="D752" s="2"/>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="1"/>
+      <c r="B753" s="1"/>
+      <c r="C753" s="2"/>
+      <c r="D753" s="2"/>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="1"/>
+      <c r="B754" s="1"/>
+      <c r="C754" s="2"/>
+      <c r="D754" s="2"/>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="1"/>
+      <c r="B755" s="1"/>
+      <c r="C755" s="2"/>
+      <c r="D755" s="2"/>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" s="1"/>
+      <c r="B756" s="1"/>
+      <c r="C756" s="2"/>
+      <c r="D756" s="2"/>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" s="1"/>
+      <c r="B757" s="1"/>
+      <c r="C757" s="2"/>
+      <c r="D757" s="2"/>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="A758" s="1"/>
+      <c r="B758" s="1"/>
+      <c r="C758" s="2"/>
+      <c r="D758" s="2"/>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="A759" s="1"/>
+      <c r="B759" s="1"/>
+      <c r="C759" s="2"/>
+      <c r="D759" s="2"/>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="A760" s="1"/>
+      <c r="B760" s="1"/>
+      <c r="C760" s="2"/>
+      <c r="D760" s="2"/>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" s="1"/>
+      <c r="B761" s="1"/>
+      <c r="C761" s="2"/>
+      <c r="D761" s="2"/>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="1"/>
+      <c r="B762" s="1"/>
+      <c r="C762" s="2"/>
+      <c r="D762" s="2"/>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="1"/>
+      <c r="B763" s="1"/>
+      <c r="C763" s="2"/>
+      <c r="D763" s="2"/>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="1"/>
+      <c r="B764" s="1"/>
+      <c r="C764" s="2"/>
+      <c r="D764" s="2"/>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="1"/>
+      <c r="B765" s="1"/>
+      <c r="C765" s="2"/>
+      <c r="D765" s="2"/>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="1"/>
+      <c r="B766" s="1"/>
+      <c r="C766" s="2"/>
+      <c r="D766" s="2"/>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="1"/>
+      <c r="B767" s="1"/>
+      <c r="C767" s="2"/>
+      <c r="D767" s="2"/>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="1"/>
+      <c r="B768" s="1"/>
+      <c r="C768" s="2"/>
+      <c r="D768" s="2"/>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="1"/>
+      <c r="B769" s="1"/>
+      <c r="C769" s="2"/>
+      <c r="D769" s="2"/>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="1"/>
+      <c r="B770" s="1"/>
+      <c r="C770" s="2"/>
+      <c r="D770" s="2"/>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="1"/>
+      <c r="B771" s="1"/>
+      <c r="C771" s="2"/>
+      <c r="D771" s="2"/>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="1"/>
+      <c r="B772" s="1"/>
+      <c r="C772" s="2"/>
+      <c r="D772" s="2"/>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="1"/>
+      <c r="B773" s="1"/>
+      <c r="C773" s="2"/>
+      <c r="D773" s="2"/>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="1"/>
+      <c r="B774" s="1"/>
+      <c r="C774" s="2"/>
+      <c r="D774" s="2"/>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="1"/>
+      <c r="B775" s="1"/>
+      <c r="C775" s="2"/>
+      <c r="D775" s="2"/>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="1"/>
+      <c r="B776" s="1"/>
+      <c r="C776" s="2"/>
+      <c r="D776" s="2"/>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="1"/>
+      <c r="B777" s="1"/>
+      <c r="C777" s="2"/>
+      <c r="D777" s="2"/>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="1"/>
+      <c r="B778" s="1"/>
+      <c r="C778" s="2"/>
+      <c r="D778" s="2"/>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="1"/>
+      <c r="B779" s="1"/>
+      <c r="C779" s="2"/>
+      <c r="D779" s="2"/>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="1"/>
+      <c r="B780" s="1"/>
+      <c r="C780" s="2"/>
+      <c r="D780" s="2"/>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="1"/>
+      <c r="B781" s="1"/>
+      <c r="C781" s="2"/>
+      <c r="D781" s="2"/>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="1"/>
+      <c r="B782" s="1"/>
+      <c r="C782" s="2"/>
+      <c r="D782" s="2"/>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="1"/>
+      <c r="B783" s="1"/>
+      <c r="C783" s="2"/>
+      <c r="D783" s="2"/>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" s="1"/>
+      <c r="B784" s="1"/>
+      <c r="C784" s="2"/>
+      <c r="D784" s="2"/>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" s="1"/>
+      <c r="B785" s="1"/>
+      <c r="C785" s="2"/>
+      <c r="D785" s="2"/>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" s="1"/>
+      <c r="B786" s="1"/>
+      <c r="C786" s="2"/>
+      <c r="D786" s="2"/>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" s="1"/>
+      <c r="B787" s="1"/>
+      <c r="C787" s="2"/>
+      <c r="D787" s="2"/>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="A788" s="1"/>
+      <c r="B788" s="1"/>
+      <c r="C788" s="2"/>
+      <c r="D788" s="2"/>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" s="1"/>
+      <c r="B789" s="1"/>
+      <c r="C789" s="2"/>
+      <c r="D789" s="2"/>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="A790" s="1"/>
+      <c r="B790" s="1"/>
+      <c r="C790" s="2"/>
+      <c r="D790" s="2"/>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="1"/>
+      <c r="B791" s="1"/>
+      <c r="C791" s="2"/>
+      <c r="D791" s="2"/>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" s="1"/>
+      <c r="B792" s="1"/>
+      <c r="C792" s="2"/>
+      <c r="D792" s="2"/>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" s="1"/>
+      <c r="B793" s="1"/>
+      <c r="C793" s="2"/>
+      <c r="D793" s="2"/>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="1"/>
+      <c r="B794" s="1"/>
+      <c r="C794" s="2"/>
+      <c r="D794" s="2"/>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="A795" s="1"/>
+      <c r="B795" s="1"/>
+      <c r="C795" s="2"/>
+      <c r="D795" s="2"/>
+    </row>
+    <row r="796" spans="1:4">
+      <c r="A796" s="1"/>
+      <c r="B796" s="1"/>
+      <c r="C796" s="2"/>
+      <c r="D796" s="2"/>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" s="1"/>
+      <c r="B797" s="1"/>
+      <c r="C797" s="2"/>
+      <c r="D797" s="2"/>
+    </row>
+    <row r="798" spans="1:4">
+      <c r="A798" s="1"/>
+      <c r="B798" s="1"/>
+      <c r="C798" s="2"/>
+      <c r="D798" s="2"/>
+    </row>
+    <row r="799" spans="1:4">
+      <c r="A799" s="1"/>
+      <c r="B799" s="1"/>
+      <c r="C799" s="2"/>
+      <c r="D799" s="2"/>
+    </row>
+    <row r="800" spans="1:4">
+      <c r="A800" s="1"/>
+      <c r="B800" s="1"/>
+      <c r="C800" s="2"/>
+      <c r="D800" s="2"/>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="A801" s="1"/>
+      <c r="B801" s="1"/>
+      <c r="C801" s="2"/>
+      <c r="D801" s="2"/>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="A802" s="1"/>
+      <c r="B802" s="1"/>
+      <c r="C802" s="2"/>
+      <c r="D802" s="2"/>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="A803" s="1"/>
+      <c r="B803" s="1"/>
+      <c r="C803" s="2"/>
+      <c r="D803" s="2"/>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="A804" s="1"/>
+      <c r="B804" s="1"/>
+      <c r="C804" s="2"/>
+      <c r="D804" s="2"/>
+    </row>
+    <row r="805" spans="1:4">
+      <c r="A805" s="1"/>
+      <c r="B805" s="1"/>
+      <c r="C805" s="2"/>
+      <c r="D805" s="2"/>
+    </row>
+    <row r="806" spans="1:4">
+      <c r="A806" s="1"/>
+      <c r="B806" s="1"/>
+      <c r="C806" s="2"/>
+      <c r="D806" s="2"/>
+    </row>
+    <row r="807" spans="1:4">
+      <c r="A807" s="1"/>
+      <c r="B807" s="1"/>
+      <c r="C807" s="2"/>
+      <c r="D807" s="2"/>
+    </row>
+    <row r="808" spans="1:4">
+      <c r="A808" s="1"/>
+      <c r="B808" s="1"/>
+      <c r="C808" s="2"/>
+      <c r="D808" s="2"/>
+    </row>
+    <row r="809" spans="1:4">
+      <c r="A809" s="1"/>
+      <c r="B809" s="1"/>
+      <c r="C809" s="2"/>
+      <c r="D809" s="2"/>
+    </row>
+    <row r="810" spans="1:4">
+      <c r="A810" s="1"/>
+      <c r="B810" s="1"/>
+      <c r="C810" s="2"/>
+      <c r="D810" s="2"/>
+    </row>
+    <row r="811" spans="1:4">
+      <c r="A811" s="1"/>
+      <c r="B811" s="1"/>
+      <c r="C811" s="2"/>
+      <c r="D811" s="2"/>
+    </row>
+    <row r="812" spans="1:4">
+      <c r="A812" s="1"/>
+      <c r="B812" s="1"/>
+      <c r="C812" s="2"/>
+      <c r="D812" s="2"/>
+    </row>
+    <row r="813" spans="1:4">
+      <c r="A813" s="1"/>
+      <c r="B813" s="1"/>
+      <c r="C813" s="2"/>
+      <c r="D813" s="2"/>
+    </row>
+    <row r="814" spans="1:4">
+      <c r="A814" s="1"/>
+      <c r="B814" s="1"/>
+      <c r="C814" s="2"/>
+      <c r="D814" s="2"/>
+    </row>
+    <row r="815" spans="1:4">
+      <c r="A815" s="1"/>
+      <c r="B815" s="1"/>
+      <c r="C815" s="2"/>
+      <c r="D815" s="2"/>
+    </row>
+    <row r="816" spans="1:4">
+      <c r="A816" s="1"/>
+      <c r="B816" s="1"/>
+      <c r="C816" s="2"/>
+      <c r="D816" s="2"/>
+    </row>
+    <row r="817" spans="1:4">
+      <c r="A817" s="1"/>
+      <c r="B817" s="1"/>
+      <c r="C817" s="2"/>
+      <c r="D817" s="2"/>
+    </row>
+    <row r="818" spans="1:4">
+      <c r="A818" s="1"/>
+      <c r="B818" s="1"/>
+      <c r="C818" s="2"/>
+      <c r="D818" s="2"/>
+    </row>
+    <row r="819" spans="1:4">
+      <c r="A819" s="1"/>
+      <c r="B819" s="1"/>
+      <c r="C819" s="2"/>
+      <c r="D819" s="2"/>
+    </row>
+    <row r="820" spans="1:4">
+      <c r="A820" s="1"/>
+      <c r="B820" s="1"/>
+      <c r="C820" s="2"/>
+      <c r="D820" s="2"/>
+    </row>
+    <row r="821" spans="1:4">
+      <c r="A821" s="1"/>
+      <c r="B821" s="1"/>
+      <c r="C821" s="2"/>
+      <c r="D821" s="2"/>
+    </row>
+    <row r="822" spans="1:4">
+      <c r="A822" s="1"/>
+      <c r="B822" s="1"/>
+      <c r="C822" s="2"/>
+      <c r="D822" s="2"/>
+    </row>
+    <row r="823" spans="1:4">
+      <c r="A823" s="1"/>
+      <c r="B823" s="1"/>
+      <c r="C823" s="2"/>
+      <c r="D823" s="2"/>
+    </row>
+    <row r="824" spans="1:4">
+      <c r="A824" s="1"/>
+      <c r="B824" s="1"/>
+      <c r="C824" s="2"/>
+      <c r="D824" s="2"/>
+    </row>
+    <row r="825" spans="1:4">
+      <c r="A825" s="1"/>
+      <c r="B825" s="1"/>
+      <c r="C825" s="2"/>
+      <c r="D825" s="2"/>
+    </row>
+    <row r="826" spans="1:4">
+      <c r="A826" s="1"/>
+      <c r="B826" s="1"/>
+      <c r="C826" s="2"/>
+      <c r="D826" s="2"/>
+    </row>
+    <row r="827" spans="1:4">
+      <c r="A827" s="1"/>
+      <c r="B827" s="1"/>
+      <c r="C827" s="2"/>
+      <c r="D827" s="2"/>
+    </row>
+    <row r="828" spans="1:4">
+      <c r="A828" s="1"/>
+      <c r="B828" s="1"/>
+      <c r="C828" s="2"/>
+      <c r="D828" s="2"/>
+    </row>
+    <row r="829" spans="1:4">
+      <c r="A829" s="1"/>
+      <c r="B829" s="1"/>
+      <c r="C829" s="2"/>
+      <c r="D829" s="2"/>
+    </row>
+    <row r="830" spans="1:4">
+      <c r="A830" s="1"/>
+      <c r="B830" s="1"/>
+      <c r="C830" s="2"/>
+      <c r="D830" s="2"/>
+    </row>
+    <row r="831" spans="1:4">
+      <c r="A831" s="1"/>
+      <c r="B831" s="1"/>
+      <c r="C831" s="2"/>
+      <c r="D831" s="2"/>
+    </row>
+    <row r="832" spans="1:4">
+      <c r="A832" s="1"/>
+      <c r="B832" s="1"/>
+      <c r="C832" s="2"/>
+      <c r="D832" s="2"/>
+    </row>
+    <row r="833" spans="1:4">
+      <c r="A833" s="1"/>
+      <c r="B833" s="1"/>
+      <c r="C833" s="2"/>
+      <c r="D833" s="2"/>
+    </row>
+    <row r="834" spans="1:4">
+      <c r="A834" s="1"/>
+      <c r="B834" s="1"/>
+      <c r="C834" s="2"/>
+      <c r="D834" s="2"/>
+    </row>
+    <row r="835" spans="1:4">
+      <c r="A835" s="1"/>
+      <c r="B835" s="1"/>
+      <c r="C835" s="2"/>
+      <c r="D835" s="2"/>
+    </row>
+    <row r="836" spans="1:4">
+      <c r="A836" s="1"/>
+      <c r="B836" s="1"/>
+      <c r="C836" s="2"/>
+      <c r="D836" s="2"/>
+    </row>
+    <row r="837" spans="1:4">
+      <c r="A837" s="1"/>
+      <c r="B837" s="1"/>
+      <c r="C837" s="2"/>
+      <c r="D837" s="2"/>
+    </row>
+    <row r="838" spans="1:4">
+      <c r="A838" s="1"/>
+      <c r="B838" s="1"/>
+      <c r="C838" s="2"/>
+      <c r="D838" s="2"/>
+    </row>
+    <row r="839" spans="1:4">
+      <c r="A839" s="1"/>
+      <c r="B839" s="1"/>
+      <c r="C839" s="2"/>
+      <c r="D839" s="2"/>
+    </row>
+    <row r="840" spans="1:4">
+      <c r="A840" s="1"/>
+      <c r="B840" s="1"/>
+      <c r="C840" s="2"/>
+      <c r="D840" s="2"/>
+    </row>
+    <row r="841" spans="1:4">
+      <c r="A841" s="1"/>
+      <c r="B841" s="1"/>
+      <c r="C841" s="2"/>
+      <c r="D841" s="2"/>
+    </row>
+    <row r="842" spans="1:4">
+      <c r="A842" s="1"/>
+      <c r="B842" s="1"/>
+      <c r="C842" s="2"/>
+      <c r="D842" s="2"/>
+    </row>
+    <row r="843" spans="1:4">
+      <c r="A843" s="1"/>
+      <c r="B843" s="1"/>
+      <c r="C843" s="2"/>
+      <c r="D843" s="2"/>
+    </row>
+    <row r="844" spans="1:4">
+      <c r="A844" s="1"/>
+      <c r="B844" s="1"/>
+      <c r="C844" s="2"/>
+      <c r="D844" s="2"/>
+    </row>
+    <row r="845" spans="1:4">
+      <c r="A845" s="1"/>
+      <c r="B845" s="1"/>
+      <c r="C845" s="2"/>
+      <c r="D845" s="2"/>
+    </row>
+    <row r="846" spans="1:4">
+      <c r="A846" s="1"/>
+      <c r="B846" s="1"/>
+      <c r="C846" s="2"/>
+      <c r="D846" s="2"/>
+    </row>
+    <row r="847" spans="1:4">
+      <c r="A847" s="1"/>
+      <c r="B847" s="1"/>
+      <c r="C847" s="2"/>
+      <c r="D847" s="2"/>
+    </row>
+    <row r="848" spans="1:4">
+      <c r="A848" s="1"/>
+      <c r="B848" s="1"/>
+      <c r="C848" s="2"/>
+      <c r="D848" s="2"/>
+    </row>
+    <row r="849" spans="1:4">
+      <c r="A849" s="1"/>
+      <c r="B849" s="1"/>
+      <c r="C849" s="2"/>
+      <c r="D849" s="2"/>
+    </row>
+    <row r="850" spans="1:4">
+      <c r="A850" s="1"/>
+      <c r="B850" s="1"/>
+      <c r="C850" s="2"/>
+      <c r="D850" s="2"/>
+    </row>
+    <row r="851" spans="1:4">
+      <c r="A851" s="1"/>
+      <c r="B851" s="1"/>
+      <c r="C851" s="2"/>
+      <c r="D851" s="2"/>
+    </row>
+    <row r="852" spans="1:4">
+      <c r="A852" s="1"/>
+      <c r="B852" s="1"/>
+      <c r="C852" s="2"/>
+      <c r="D852" s="2"/>
+    </row>
+    <row r="853" spans="1:4">
+      <c r="A853" s="1"/>
+      <c r="B853" s="1"/>
+      <c r="C853" s="2"/>
+      <c r="D853" s="2"/>
+    </row>
+    <row r="854" spans="1:4">
+      <c r="A854" s="1"/>
+      <c r="B854" s="1"/>
+      <c r="C854" s="2"/>
+      <c r="D854" s="2"/>
+    </row>
+    <row r="855" spans="1:4">
+      <c r="A855" s="1"/>
+      <c r="B855" s="1"/>
+      <c r="C855" s="2"/>
+      <c r="D855" s="2"/>
+    </row>
+    <row r="856" spans="1:4">
+      <c r="A856" s="1"/>
+      <c r="B856" s="1"/>
+      <c r="C856" s="2"/>
+      <c r="D856" s="2"/>
+    </row>
+    <row r="857" spans="1:4">
+      <c r="A857" s="1"/>
+      <c r="B857" s="1"/>
+      <c r="C857" s="2"/>
+      <c r="D857" s="2"/>
+    </row>
+    <row r="858" spans="1:4">
+      <c r="A858" s="1"/>
+      <c r="B858" s="1"/>
+      <c r="C858" s="2"/>
+      <c r="D858" s="2"/>
+    </row>
+    <row r="859" spans="1:4">
+      <c r="A859" s="1"/>
+      <c r="B859" s="1"/>
+      <c r="C859" s="2"/>
+      <c r="D859" s="2"/>
+    </row>
+    <row r="860" spans="1:4">
+      <c r="A860" s="1"/>
+      <c r="B860" s="1"/>
+      <c r="C860" s="2"/>
+      <c r="D860" s="2"/>
+    </row>
+    <row r="861" spans="1:4">
+      <c r="A861" s="1"/>
+      <c r="B861" s="1"/>
+      <c r="C861" s="2"/>
+      <c r="D861" s="2"/>
+    </row>
+    <row r="862" spans="1:4">
+      <c r="A862" s="1"/>
+      <c r="B862" s="1"/>
+      <c r="C862" s="2"/>
+      <c r="D862" s="2"/>
+    </row>
+    <row r="863" spans="1:4">
+      <c r="A863" s="1"/>
+      <c r="B863" s="1"/>
+      <c r="C863" s="2"/>
+      <c r="D863" s="2"/>
+    </row>
+    <row r="864" spans="1:4">
+      <c r="A864" s="1"/>
+      <c r="B864" s="1"/>
+      <c r="C864" s="2"/>
+      <c r="D864" s="2"/>
+    </row>
+    <row r="865" spans="1:4">
+      <c r="A865" s="1"/>
+      <c r="B865" s="1"/>
+      <c r="C865" s="2"/>
+      <c r="D865" s="2"/>
+    </row>
+    <row r="866" spans="1:4">
+      <c r="A866" s="1"/>
+      <c r="B866" s="1"/>
+      <c r="C866" s="2"/>
+      <c r="D866" s="2"/>
+    </row>
+    <row r="867" spans="1:4">
+      <c r="A867" s="1"/>
+      <c r="B867" s="1"/>
+      <c r="C867" s="2"/>
+      <c r="D867" s="2"/>
+    </row>
+    <row r="868" spans="1:4">
+      <c r="A868" s="1"/>
+      <c r="B868" s="1"/>
+      <c r="C868" s="2"/>
+      <c r="D868" s="2"/>
+    </row>
+    <row r="869" spans="1:4">
+      <c r="A869" s="1"/>
+      <c r="B869" s="1"/>
+      <c r="C869" s="2"/>
+      <c r="D869" s="2"/>
+    </row>
+    <row r="870" spans="1:4">
+      <c r="A870" s="1"/>
+      <c r="B870" s="1"/>
+      <c r="C870" s="2"/>
+      <c r="D870" s="2"/>
+    </row>
+    <row r="871" spans="1:4">
+      <c r="A871" s="1"/>
+      <c r="B871" s="1"/>
+      <c r="C871" s="2"/>
+      <c r="D871" s="2"/>
+    </row>
+    <row r="872" spans="1:4">
+      <c r="A872" s="1"/>
+      <c r="B872" s="1"/>
+      <c r="C872" s="2"/>
+      <c r="D872" s="2"/>
+    </row>
+    <row r="873" spans="1:4">
+      <c r="A873" s="1"/>
+      <c r="B873" s="1"/>
+      <c r="C873" s="2"/>
+      <c r="D873" s="2"/>
+    </row>
+    <row r="874" spans="1:4">
+      <c r="A874" s="1"/>
+      <c r="B874" s="1"/>
+      <c r="C874" s="2"/>
+      <c r="D874" s="2"/>
+    </row>
+    <row r="875" spans="1:4">
+      <c r="A875" s="1"/>
+      <c r="B875" s="1"/>
+      <c r="C875" s="2"/>
+      <c r="D875" s="2"/>
+    </row>
+    <row r="876" spans="1:4">
+      <c r="A876" s="1"/>
+      <c r="B876" s="1"/>
+      <c r="C876" s="2"/>
+      <c r="D876" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4430,8 +8907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10665,9 +15142,7 @@
       </c>
     </row>
     <row r="194" spans="1:18">
-      <c r="D194" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D194" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/compare-lists-output.xlsx
+++ b/compare-lists-output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="0" windowWidth="25600" windowHeight="16980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Registered" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="2066">
   <si>
     <t>First Name</t>
   </si>
@@ -3019,15 +3019,6 @@
     <t xml:space="preserve"> (703) 450-3202</t>
   </si>
   <si>
-    <t>vacant</t>
-  </si>
-  <si>
-    <t>Vice President, Worldwide Information Systems</t>
-  </si>
-  <si>
-    <t>This position was previously held by Alejandro (Alex) Friexas.</t>
-  </si>
-  <si>
     <t>Barrett</t>
   </si>
   <si>
@@ -3626,18 +3617,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/pub/annie-zaman/a/75a/a06</t>
-  </si>
-  <si>
-    <t>Kuppa</t>
-  </si>
-  <si>
-    <t>Development Lead / Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (703) 918-8602</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/pub/prasad-kuppa/3/7b/59b</t>
   </si>
   <si>
     <t>Naga</t>
@@ -6107,12 +6086,6 @@
     <t>https://www.linkedin.com/in/mahesh-krishnamurthy-4127641?trk=miniprofile-photo-placeholder</t>
   </si>
   <si>
-    <t>Vacant-0</t>
-  </si>
-  <si>
-    <t>This position was previously held by Bernard (Bernie) McVey.</t>
-  </si>
-  <si>
     <t>Donna</t>
   </si>
   <si>
@@ -6273,6 +6246,51 @@
   </si>
   <si>
     <t>melissa.m.buckmaster@vencore.com</t>
+  </si>
+  <si>
+    <t>mausam.gautam@capitalone.com</t>
+  </si>
+  <si>
+    <t>cbove@pivotal.io</t>
+  </si>
+  <si>
+    <t>dzumbro@inovalon.com</t>
+  </si>
+  <si>
+    <t>mfrank@theglobaltradegroup.com</t>
+  </si>
+  <si>
+    <t>daxinn@pivotal.io</t>
+  </si>
+  <si>
+    <t>dakelly@deloitte.net</t>
+  </si>
+  <si>
+    <t>tgrandison@sevatec.com</t>
+  </si>
+  <si>
+    <t>cstevenson@pivotal.io</t>
+  </si>
+  <si>
+    <t>smohanty@pivotal.io</t>
+  </si>
+  <si>
+    <t>dakelly@deloitte.com</t>
+  </si>
+  <si>
+    <t>tony.cheung@fsis.usda.gov</t>
+  </si>
+  <si>
+    <t>vinod.kumar@usda.gov</t>
+  </si>
+  <si>
+    <t>cgoehring@pivotal.io</t>
+  </si>
+  <si>
+    <t>dan_werbel@cable.comcast.com</t>
+  </si>
+  <si>
+    <t>spencer_coleman@cable.comcast.com</t>
   </si>
 </sst>
 </file>
@@ -6280,7 +6298,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6300,6 +6318,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6342,13 +6367,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -6684,9 +6710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -6697,633 +6725,857 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41055.536111111112</v>
+      </c>
+      <c r="D2" s="3">
+        <v>41005.552083333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C3" s="3">
+        <v>41061.370138888888</v>
+      </c>
+      <c r="D3" s="3">
+        <v>41058.034722222219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41046.838194444441</v>
+      </c>
+      <c r="D4" s="3">
+        <v>41038.09097222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="3">
+        <v>41055.932638888888</v>
+      </c>
+      <c r="D5" s="3">
+        <v>41038.431250000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C6" s="3">
+        <v>41055.932638888888</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41009.277083333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>2012</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C7" s="3">
+        <v>41061.61041666667</v>
+      </c>
+      <c r="D7" s="3">
+        <v>41061.61041666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>2013</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C8" s="3">
+        <v>41061.570138888892</v>
+      </c>
+      <c r="D8" s="3">
+        <v>41061.568055555559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C9" s="3">
+        <v>41059.556944444441</v>
+      </c>
+      <c r="D9" s="3">
+        <v>41059.550000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="C10" s="3">
+        <v>41051.943055555559</v>
+      </c>
+      <c r="D10" s="3">
+        <v>41039.503472222219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C11" s="3">
+        <v>41061.320833333331</v>
+      </c>
+      <c r="D11" s="3">
+        <v>41044.365277777775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="C2" s="2">
-        <v>41046.685347222221</v>
-      </c>
-      <c r="D2" s="2">
-        <v>41005.552418981482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C12" s="3">
+        <v>41062.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>41062.497916666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C13" s="3">
+        <v>41062.601388888892</v>
+      </c>
+      <c r="D13" s="3">
+        <v>41062.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>2017</v>
       </c>
-      <c r="C3" s="2">
-        <v>41046.955358796295</v>
-      </c>
-      <c r="D3" s="2">
-        <v>41046.658171296294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C14" s="3">
+        <v>41051.95416666667</v>
+      </c>
+      <c r="D14" s="3">
+        <v>41044.454861111109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="C4" s="2">
-        <v>41046.838622685187</v>
-      </c>
-      <c r="D4" s="2">
-        <v>41038.091180555559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C15" s="3">
+        <v>41061.276388888888</v>
+      </c>
+      <c r="D15" s="3">
+        <v>41052.396527777775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41061.323611111111</v>
+      </c>
+      <c r="D16" s="3">
+        <v>41061.320833333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C17" s="3">
+        <v>41060.894444444442</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41060.752083333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="C5" s="2">
-        <v>41038.438472222224</v>
-      </c>
-      <c r="D5" s="2">
-        <v>41038.431493055556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C18" s="3">
+        <v>41055.972222222219</v>
+      </c>
+      <c r="D18" s="3">
+        <v>41005.491666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C19" s="3">
+        <v>41059.511805555558</v>
+      </c>
+      <c r="D19" s="3">
+        <v>41059.508333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>2020</v>
       </c>
-      <c r="C6" s="2">
-        <v>41027.542349537034</v>
-      </c>
-      <c r="D6" s="2">
-        <v>41009.277106481481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C20" s="3">
+        <v>41059.314583333333</v>
+      </c>
+      <c r="D20" s="3">
+        <v>41005.49722222222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C21" s="3">
+        <v>41061.819444444445</v>
+      </c>
+      <c r="D21" s="3">
+        <v>41061.79583333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>2021</v>
       </c>
-      <c r="C7" s="2">
-        <v>41052.938668981478</v>
-      </c>
-      <c r="D7" s="2">
-        <v>41045.347708333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C22" s="3">
+        <v>41055.53125</v>
+      </c>
+      <c r="D22" s="3">
+        <v>41041.466666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C23" s="3">
+        <v>41061.322916666664</v>
+      </c>
+      <c r="D23" s="3">
+        <v>41054.583333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="C8" s="2">
-        <v>41052.233090277776</v>
-      </c>
-      <c r="D8" s="2">
-        <v>41004.830937500003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C24" s="3">
+        <v>41061.291666666664</v>
+      </c>
+      <c r="D24" s="3">
+        <v>41047.324999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="C9" s="2">
-        <v>41051.943715277775</v>
-      </c>
-      <c r="D9" s="2">
-        <v>41039.504155092596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C25" s="3">
+        <v>41055.536111111112</v>
+      </c>
+      <c r="D25" s="3">
+        <v>41005.506944444445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="C10" s="2">
-        <v>41052.258692129632</v>
-      </c>
-      <c r="D10" s="2">
-        <v>41044.36577546296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C26" s="3">
+        <v>41061.783333333333</v>
+      </c>
+      <c r="D26" s="3">
+        <v>41061.779166666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="C11" s="2">
-        <v>41041.468645833331</v>
-      </c>
-      <c r="D11" s="2">
-        <v>41041.465428240743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C27" s="3">
+        <v>41061.190972222219</v>
+      </c>
+      <c r="D27" s="3">
+        <v>41061.185416666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="C12" s="2">
-        <v>41051.954386574071</v>
-      </c>
-      <c r="D12" s="2">
-        <v>41044.454907407409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C28" s="3">
+        <v>41055.536111111112</v>
+      </c>
+      <c r="D28" s="3">
+        <v>41045.102083333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C29" s="3">
+        <v>41062.288888888892</v>
+      </c>
+      <c r="D29" s="3">
+        <v>41062.285416666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>2027</v>
       </c>
-      <c r="C13" s="2">
-        <v>41052.799039351848</v>
-      </c>
-      <c r="D13" s="2">
-        <v>41052.396550925929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C30" s="3">
+        <v>41047.295138888891</v>
+      </c>
+      <c r="D30" s="3">
+        <v>41037.683333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="C14" s="2">
-        <v>41030.422164351854</v>
-      </c>
-      <c r="D14" s="2">
-        <v>41005.492094907408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C31" s="3">
+        <v>41057.931944444441</v>
+      </c>
+      <c r="D31" s="3">
+        <v>41050.296527777777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>2029</v>
       </c>
-      <c r="C15" s="2">
-        <v>41051.957106481481</v>
-      </c>
-      <c r="D15" s="2">
-        <v>41005.497812499998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C32" s="3">
+        <v>41046.750694444447</v>
+      </c>
+      <c r="D32" s="3">
+        <v>41039.775694444441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="C16" s="2">
-        <v>41051.947465277779</v>
-      </c>
-      <c r="D16" s="2">
-        <v>41041.467291666668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C33" s="3">
+        <v>41062.837500000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>41003.52847222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>2031</v>
       </c>
-      <c r="C17" s="2">
-        <v>41047.345636574071</v>
-      </c>
-      <c r="D17" s="2">
-        <v>41047.324999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C34" s="3">
+        <v>41047.070833333331</v>
+      </c>
+      <c r="D34" s="3">
+        <v>41039.630555555559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>2032</v>
       </c>
-      <c r="C18" s="2">
-        <v>41047.490266203706</v>
-      </c>
-      <c r="D18" s="2">
-        <v>41005.506990740738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C35" s="3">
+        <v>41062.796527777777</v>
+      </c>
+      <c r="D35" s="3">
+        <v>41048.53125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="C19" s="2">
-        <v>41052.240393518521</v>
-      </c>
-      <c r="D19" s="2">
-        <v>41025.227662037039</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C36" s="3">
+        <v>41046.970833333333</v>
+      </c>
+      <c r="D36" s="3">
+        <v>41006.442361111112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="C20" s="2">
-        <v>41046.956030092595</v>
-      </c>
-      <c r="D20" s="2">
-        <v>41039.448182870372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C37" s="3">
+        <v>41047.05972222222</v>
+      </c>
+      <c r="D37" s="3">
+        <v>41009.288888888892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="C21" s="2">
-        <v>41047.477465277778</v>
-      </c>
-      <c r="D21" s="2">
-        <v>41045.102546296293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C38" s="3">
+        <v>41047.115277777775</v>
+      </c>
+      <c r="D38" s="3">
+        <v>41023.600694444445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="C22" s="2">
-        <v>41047.295486111114</v>
-      </c>
-      <c r="D22" s="2">
-        <v>41037.68378472222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C39" s="3">
+        <v>41051.954861111109</v>
+      </c>
+      <c r="D39" s="3">
+        <v>41044.460416666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>2037</v>
       </c>
-      <c r="C23" s="2">
-        <v>41050.301261574074</v>
-      </c>
-      <c r="D23" s="2">
-        <v>41050.297164351854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C40" s="3">
+        <v>41046.993750000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>41030.806944444441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="C24" s="2">
-        <v>41046.75104166667</v>
-      </c>
-      <c r="D24" s="2">
-        <v>41039.775995370372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C41" s="3">
+        <v>41061.279166666667</v>
+      </c>
+      <c r="D41" s="3">
+        <v>41059.587500000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="C25" s="2">
-        <v>41046.983530092592</v>
-      </c>
-      <c r="D25" s="2">
-        <v>41003.528877314813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C42" s="3">
+        <v>41047.262499999997</v>
+      </c>
+      <c r="D42" s="3">
+        <v>41034.157638888886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="C26" s="2">
-        <v>41047.070902777778</v>
-      </c>
-      <c r="D26" s="2">
-        <v>41039.630868055552</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C43" s="3">
+        <v>41047.150694444441</v>
+      </c>
+      <c r="D43" s="3">
+        <v>41039.275694444441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>2041</v>
       </c>
-      <c r="C27" s="2">
-        <v>41051.501655092594</v>
-      </c>
-      <c r="D27" s="2">
-        <v>41048.531724537039</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C44" s="3">
+        <v>41061.314583333333</v>
+      </c>
+      <c r="D44" s="3">
+        <v>41048.304166666669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="C28" s="2">
-        <v>41046.97115740741</v>
-      </c>
-      <c r="D28" s="2">
-        <v>41006.442789351851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C45" s="3">
+        <v>41055.536111111112</v>
+      </c>
+      <c r="D45" s="3">
+        <v>41040.535416666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C46" s="3">
+        <v>41063.945138888892</v>
+      </c>
+      <c r="D46" s="3">
+        <v>41057.734722222223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>2043</v>
       </c>
-      <c r="C29" s="2">
-        <v>41047.059872685182</v>
-      </c>
-      <c r="D29" s="2">
-        <v>41009.289212962962</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C47" s="3">
+        <v>41061.292361111111</v>
+      </c>
+      <c r="D47" s="3">
+        <v>41061.281944444447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>2044</v>
       </c>
-      <c r="C30" s="2">
-        <v>41047.115763888891</v>
-      </c>
-      <c r="D30" s="2">
-        <v>41023.600729166668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C48" s="3">
+        <v>41055.941666666666</v>
+      </c>
+      <c r="D48" s="3">
+        <v>41048.470138888886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C49" s="3">
+        <v>41061.20416666667</v>
+      </c>
+      <c r="D49" s="3">
+        <v>41061.20208333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>2045</v>
       </c>
-      <c r="C31" s="2">
-        <v>41051.955150462964</v>
-      </c>
-      <c r="D31" s="2">
-        <v>41044.460462962961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C50" s="3">
+        <v>41058.967361111114</v>
+      </c>
+      <c r="D50" s="3">
+        <v>41051.45208333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>2046</v>
       </c>
-      <c r="C32" s="2">
-        <v>41046.993807870371</v>
-      </c>
-      <c r="D32" s="2">
-        <v>41030.807476851849</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C51" s="3">
+        <v>41061.27847222222</v>
+      </c>
+      <c r="D51" s="3">
+        <v>41051.506944444445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>2047</v>
       </c>
-      <c r="C33" s="2">
-        <v>41051.953530092593</v>
-      </c>
-      <c r="D33" s="2">
-        <v>41033.321747685186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C52" s="3">
+        <v>41059.952777777777</v>
+      </c>
+      <c r="D52" s="3">
+        <v>41059.3125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="C34" s="2">
-        <v>41047.262835648151</v>
-      </c>
-      <c r="D34" s="2">
-        <v>41034.157743055555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C53" s="3">
+        <v>41059.952777777777</v>
+      </c>
+      <c r="D53" s="3">
+        <v>41052.236111111109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="C35" s="2">
-        <v>41047.150821759256</v>
-      </c>
-      <c r="D35" s="2">
-        <v>41039.276087962964</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C54" s="3">
+        <v>41059.952777777777</v>
+      </c>
+      <c r="D54" s="3">
+        <v>41052.241666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>2050</v>
       </c>
-      <c r="C36" s="2">
-        <v>41048.306527777779</v>
-      </c>
-      <c r="D36" s="2">
-        <v>41048.304513888892</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2051</v>
-      </c>
-      <c r="C37" s="2">
-        <v>41047.946250000001</v>
-      </c>
-      <c r="D37" s="2">
-        <v>41040.535775462966</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C38" s="2">
-        <v>41048.318668981483</v>
-      </c>
-      <c r="D38" s="2">
-        <v>41048.31759259259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C55" s="3">
+        <v>41062.942361111112</v>
+      </c>
+      <c r="D55" s="3">
+        <v>41055.160416666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="C39" s="2">
-        <v>41048.491712962961</v>
-      </c>
-      <c r="D39" s="2">
-        <v>41048.470810185187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C56" s="3">
+        <v>41061.946527777778</v>
+      </c>
+      <c r="D56" s="3">
+        <v>41054.427083333336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="C40" s="2">
-        <v>41051.458425925928</v>
-      </c>
-      <c r="D40" s="2">
-        <v>41051.45244212963</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2055</v>
-      </c>
-      <c r="C41" s="2">
-        <v>41051.528356481482</v>
-      </c>
-      <c r="D41" s="2">
-        <v>41051.507407407407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C42" s="2">
-        <v>41052.301157407404</v>
-      </c>
-      <c r="D42" s="2">
-        <v>41052.270810185182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C57" s="3">
+        <v>41054.761111111111</v>
+      </c>
+      <c r="D57" s="3">
+        <v>41055.365277777775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>2057</v>
       </c>
-      <c r="C43" s="2">
-        <v>41052.257523148146</v>
-      </c>
-      <c r="D43" s="2">
-        <v>41052.23641203704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C44" s="2">
-        <v>41052.263194444444</v>
-      </c>
-      <c r="D44" s="2">
-        <v>41052.242280092592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2059</v>
-      </c>
-      <c r="C45" s="2">
-        <v>41052.445451388892</v>
-      </c>
-      <c r="D45" s="2">
-        <v>41052.439571759256</v>
+      <c r="C58" s="3">
+        <v>41058.413888888892</v>
+      </c>
+      <c r="D58" s="3">
+        <v>41058.413194444445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C59" s="3">
+        <v>41060.270138888889</v>
+      </c>
+      <c r="D59" s="3">
+        <v>41060.268750000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C60" s="3">
+        <v>41061.474999999999</v>
+      </c>
+      <c r="D60" s="3">
+        <v>41059.542361111111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C61" s="3">
+        <v>41062.311111111114</v>
+      </c>
+      <c r="D61" s="3">
+        <v>41062.304861111108</v>
       </c>
     </row>
   </sheetData>
@@ -7338,9 +7590,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N338"/>
+  <dimension ref="A1:N335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -13443,24 +13695,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" ht="409">
       <c r="A151" t="s">
+        <v>984</v>
+      </c>
+      <c r="B151" t="s">
+        <v>985</v>
+      </c>
+      <c r="C151" t="s">
+        <v>986</v>
+      </c>
+      <c r="D151" t="s">
         <v>987</v>
-      </c>
-      <c r="B151" t="s">
-        <v>988</v>
-      </c>
-      <c r="C151" t="s">
-        <v>989</v>
-      </c>
-      <c r="D151" t="s">
-        <v>990</v>
       </c>
       <c r="E151" t="s">
         <v>329</v>
       </c>
       <c r="F151" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G151" t="s">
         <v>20</v>
@@ -13472,10 +13724,10 @@
         <v>52</v>
       </c>
       <c r="J151" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="M151" t="s">
         <v>170</v>
@@ -13486,22 +13738,22 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
+        <v>991</v>
+      </c>
+      <c r="B152" t="s">
+        <v>992</v>
+      </c>
+      <c r="C152" t="s">
+        <v>993</v>
+      </c>
+      <c r="D152" t="s">
         <v>994</v>
-      </c>
-      <c r="B152" t="s">
-        <v>995</v>
-      </c>
-      <c r="C152" t="s">
-        <v>996</v>
-      </c>
-      <c r="D152" t="s">
-        <v>997</v>
       </c>
       <c r="E152" t="s">
         <v>458</v>
       </c>
       <c r="F152" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G152" t="s">
         <v>20</v>
@@ -13513,7 +13765,7 @@
         <v>52</v>
       </c>
       <c r="J152" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="M152" t="s">
         <v>258</v>
@@ -13522,24 +13774,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" ht="150">
       <c r="A153" t="s">
+        <v>997</v>
+      </c>
+      <c r="B153" t="s">
+        <v>998</v>
+      </c>
+      <c r="C153" t="s">
+        <v>999</v>
+      </c>
+      <c r="D153" t="s">
         <v>1000</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1003</v>
       </c>
       <c r="E153" t="s">
         <v>129</v>
       </c>
       <c r="F153" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G153" t="s">
         <v>20</v>
@@ -13551,7 +13803,7 @@
         <v>52</v>
       </c>
       <c r="J153" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>879</v>
@@ -13565,22 +13817,22 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D154" t="s">
         <v>1006</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1009</v>
       </c>
       <c r="E154" t="s">
         <v>458</v>
       </c>
       <c r="G154" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H154" t="s">
         <v>62</v>
@@ -13589,7 +13841,7 @@
         <v>52</v>
       </c>
       <c r="J154" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="M154" t="s">
         <v>258</v>
@@ -13598,24 +13850,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" ht="409">
       <c r="A155" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B155" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C155" t="s">
         <v>584</v>
       </c>
       <c r="D155" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E155" t="s">
         <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G155" t="s">
         <v>20</v>
@@ -13627,7 +13879,7 @@
         <v>52</v>
       </c>
       <c r="J155" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>755</v>
@@ -13641,22 +13893,22 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B156" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C156" t="s">
         <v>975</v>
       </c>
       <c r="D156" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E156" t="s">
         <v>424</v>
       </c>
       <c r="F156" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="G156" t="s">
         <v>20</v>
@@ -13668,7 +13920,7 @@
         <v>52</v>
       </c>
       <c r="J156" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="M156" t="s">
         <v>170</v>
@@ -13677,24 +13929,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" ht="409">
       <c r="A157" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D157" t="s">
         <v>1022</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1025</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G157" t="s">
         <v>20</v>
@@ -13706,7 +13958,7 @@
         <v>52</v>
       </c>
       <c r="J157" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>755</v>
@@ -13718,24 +13970,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" ht="409">
       <c r="A158" t="s">
         <v>853</v>
       </c>
       <c r="B158" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C158" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D158" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E158" t="s">
         <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G158" t="s">
         <v>20</v>
@@ -13747,7 +13999,7 @@
         <v>52</v>
       </c>
       <c r="J158" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>755</v>
@@ -13761,22 +14013,22 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B159" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C159" t="s">
         <v>975</v>
       </c>
       <c r="D159" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E159" t="s">
         <v>424</v>
       </c>
       <c r="F159" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G159" t="s">
         <v>20</v>
@@ -13788,7 +14040,7 @@
         <v>52</v>
       </c>
       <c r="J159" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="M159" t="s">
         <v>170</v>
@@ -13797,24 +14049,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" ht="409">
       <c r="A160" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D160" t="s">
         <v>1037</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1040</v>
       </c>
       <c r="E160" t="s">
         <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="G160" t="s">
         <v>20</v>
@@ -13826,7 +14078,7 @@
         <v>52</v>
       </c>
       <c r="J160" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>755</v>
@@ -13838,24 +14090,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" ht="409">
       <c r="A161" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D161" t="s">
         <v>1043</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D161" t="s">
-        <v>1046</v>
       </c>
       <c r="E161" t="s">
         <v>30</v>
       </c>
       <c r="F161" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G161" t="s">
         <v>20</v>
@@ -13867,7 +14119,7 @@
         <v>52</v>
       </c>
       <c r="J161" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>211</v>
@@ -13884,19 +14136,19 @@
         <v>261</v>
       </c>
       <c r="B162" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C162" t="s">
         <v>975</v>
       </c>
       <c r="D162" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E162" t="s">
         <v>424</v>
       </c>
       <c r="F162" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G162" t="s">
         <v>20</v>
@@ -13908,7 +14160,7 @@
         <v>52</v>
       </c>
       <c r="J162" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="M162" t="s">
         <v>170</v>
@@ -13919,22 +14171,22 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B163" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C163" t="s">
         <v>596</v>
       </c>
       <c r="D163" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
       </c>
       <c r="F163" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G163" t="s">
         <v>20</v>
@@ -13946,7 +14198,7 @@
         <v>52</v>
       </c>
       <c r="J163" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="M163" t="s">
         <v>170</v>
@@ -13957,22 +14209,22 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B164" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C164" t="s">
         <v>198</v>
       </c>
       <c r="D164" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G164" t="s">
         <v>20</v>
@@ -13984,7 +14236,7 @@
         <v>52</v>
       </c>
       <c r="J164" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="M164" t="s">
         <v>170</v>
@@ -13993,24 +14245,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" ht="409">
       <c r="A165" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B165" t="s">
         <v>246</v>
       </c>
       <c r="C165" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D165" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E165" t="s">
         <v>129</v>
       </c>
       <c r="F165" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G165" t="s">
         <v>20</v>
@@ -14022,13 +14274,13 @@
         <v>52</v>
       </c>
       <c r="J165" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="K165" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M165" t="s">
         <v>170</v>
@@ -14039,22 +14291,22 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D166" t="s">
         <v>1070</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1073</v>
       </c>
       <c r="E166" t="s">
         <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G166" t="s">
         <v>20</v>
@@ -14066,7 +14318,7 @@
         <v>52</v>
       </c>
       <c r="J166" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="M166" t="s">
         <v>170</v>
@@ -14075,24 +14327,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" ht="409">
       <c r="A167" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B167" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C167" t="s">
         <v>706</v>
       </c>
       <c r="D167" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E167" t="s">
         <v>17</v>
       </c>
       <c r="F167" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G167" t="s">
         <v>20</v>
@@ -14104,7 +14356,7 @@
         <v>52</v>
       </c>
       <c r="J167" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>755</v>
@@ -14116,24 +14368,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" ht="409">
       <c r="A168" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E168" t="s">
         <v>1081</v>
       </c>
-      <c r="B168" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="F168" t="s">
         <v>1083</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F168" t="s">
-        <v>1086</v>
       </c>
       <c r="G168" t="s">
         <v>20</v>
@@ -14145,7 +14397,7 @@
         <v>52</v>
       </c>
       <c r="J168" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>211</v>
@@ -14157,24 +14409,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" ht="409">
       <c r="A169" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D169" t="s">
         <v>1088</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1091</v>
       </c>
       <c r="E169" t="s">
         <v>896</v>
       </c>
       <c r="F169" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G169" t="s">
         <v>20</v>
@@ -14186,7 +14438,7 @@
         <v>52</v>
       </c>
       <c r="J169" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>755</v>
@@ -14200,22 +14452,22 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D170" t="s">
         <v>1094</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D170" t="s">
-        <v>1097</v>
       </c>
       <c r="E170" t="s">
         <v>228</v>
       </c>
       <c r="F170" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G170" t="s">
         <v>20</v>
@@ -14227,10 +14479,10 @@
         <v>52</v>
       </c>
       <c r="J170" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="K170" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="M170" t="s">
         <v>170</v>
@@ -14239,27 +14491,27 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" ht="409">
       <c r="A171" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D171" t="s">
         <v>1101</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C171" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1104</v>
       </c>
       <c r="E171" t="s">
         <v>114</v>
       </c>
       <c r="F171" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G171" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="H171" t="s">
         <v>167</v>
@@ -14268,10 +14520,10 @@
         <v>52</v>
       </c>
       <c r="J171" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="K171" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="L171" s="1" t="s">
         <v>755</v>
@@ -14285,22 +14537,22 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D172" t="s">
         <v>1109</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C172" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1112</v>
       </c>
       <c r="E172" t="s">
         <v>142</v>
       </c>
       <c r="F172" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="G172" t="s">
         <v>20</v>
@@ -14312,7 +14564,7 @@
         <v>52</v>
       </c>
       <c r="J172" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="M172" t="s">
         <v>65</v>
@@ -14323,22 +14575,22 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B173" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C173" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D173" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E173" t="s">
         <v>114</v>
       </c>
       <c r="F173" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G173" t="s">
         <v>20</v>
@@ -14350,7 +14602,7 @@
         <v>52</v>
       </c>
       <c r="J173" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="M173" t="s">
         <v>170</v>
@@ -14361,22 +14613,22 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D174" t="s">
         <v>1120</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D174" t="s">
-        <v>1123</v>
       </c>
       <c r="E174" t="s">
         <v>114</v>
       </c>
       <c r="F174" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G174" t="s">
         <v>20</v>
@@ -14388,7 +14640,7 @@
         <v>52</v>
       </c>
       <c r="J174" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="M174" t="s">
         <v>170</v>
@@ -14397,7 +14649,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" ht="409">
       <c r="A175" t="s">
         <v>41</v>
       </c>
@@ -14408,13 +14660,13 @@
         <v>544</v>
       </c>
       <c r="D175" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E175" t="s">
         <v>129</v>
       </c>
       <c r="F175" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G175" t="s">
         <v>20</v>
@@ -14426,7 +14678,7 @@
         <v>52</v>
       </c>
       <c r="J175" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>203</v>
@@ -14438,24 +14690,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" ht="409">
       <c r="A176" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D176" t="s">
         <v>1129</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C176" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1132</v>
       </c>
       <c r="E176" t="s">
         <v>458</v>
       </c>
       <c r="F176" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G176" t="s">
         <v>20</v>
@@ -14467,10 +14719,10 @@
         <v>52</v>
       </c>
       <c r="J176" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="K176" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="L176" s="1" t="s">
         <v>755</v>
@@ -14484,22 +14736,22 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D177" t="s">
         <v>1136</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1139</v>
       </c>
       <c r="E177" t="s">
         <v>424</v>
       </c>
       <c r="F177" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G177" t="s">
         <v>20</v>
@@ -14511,7 +14763,7 @@
         <v>52</v>
       </c>
       <c r="J177" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="M177" t="s">
         <v>170</v>
@@ -14520,24 +14772,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" ht="409">
       <c r="A178" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D178" t="s">
         <v>1142</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1145</v>
       </c>
       <c r="E178" t="s">
         <v>896</v>
       </c>
       <c r="F178" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G178" t="s">
         <v>20</v>
@@ -14549,7 +14801,7 @@
         <v>52</v>
       </c>
       <c r="J178" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="L178" s="1" t="s">
         <v>755</v>
@@ -14563,22 +14815,22 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B179" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C179" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D179" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E179" t="s">
         <v>424</v>
       </c>
       <c r="F179" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="G179" t="s">
         <v>20</v>
@@ -14590,7 +14842,7 @@
         <v>52</v>
       </c>
       <c r="J179" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="M179" t="s">
         <v>170</v>
@@ -14599,24 +14851,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" ht="409">
       <c r="A180" t="s">
         <v>794</v>
       </c>
       <c r="B180" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C180" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D180" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E180" t="s">
         <v>114</v>
       </c>
       <c r="F180" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="G180" t="s">
         <v>20</v>
@@ -14628,10 +14880,10 @@
         <v>52</v>
       </c>
       <c r="J180" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="K180" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="L180" s="1" t="s">
         <v>203</v>
@@ -14643,27 +14895,27 @@
         <v>171</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" ht="409">
       <c r="A181" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D181" t="s">
         <v>1159</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1162</v>
       </c>
       <c r="E181" t="s">
         <v>17</v>
       </c>
       <c r="F181" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="G181" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H181" t="s">
         <v>167</v>
@@ -14672,10 +14924,10 @@
         <v>52</v>
       </c>
       <c r="J181" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="K181" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="L181" s="1" t="s">
         <v>755</v>
@@ -14687,24 +14939,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" ht="409">
       <c r="A182" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D182" t="s">
         <v>1167</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1170</v>
       </c>
       <c r="E182" t="s">
         <v>458</v>
       </c>
       <c r="F182" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="G182" t="s">
         <v>20</v>
@@ -14716,10 +14968,10 @@
         <v>52</v>
       </c>
       <c r="J182" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="M182" t="s">
         <v>170</v>
@@ -14728,24 +14980,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" ht="409">
       <c r="A183" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D183" t="s">
         <v>1174</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D183" t="s">
-        <v>1177</v>
       </c>
       <c r="E183" t="s">
         <v>896</v>
       </c>
       <c r="F183" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="G183" t="s">
         <v>20</v>
@@ -14757,7 +15009,7 @@
         <v>52</v>
       </c>
       <c r="J183" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>755</v>
@@ -14769,24 +15021,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" ht="409">
       <c r="A184" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D184" t="s">
         <v>1180</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1183</v>
       </c>
       <c r="E184" t="s">
         <v>129</v>
       </c>
       <c r="F184" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="G184" t="s">
         <v>20</v>
@@ -14798,7 +15050,7 @@
         <v>52</v>
       </c>
       <c r="J184" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L184" s="1" t="s">
         <v>203</v>
@@ -14810,24 +15062,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" ht="409">
       <c r="A185" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B185" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="C185" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D185" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E185" t="s">
         <v>896</v>
       </c>
       <c r="F185" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="G185" t="s">
         <v>20</v>
@@ -14839,10 +15091,10 @@
         <v>52</v>
       </c>
       <c r="J185" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="M185" t="s">
         <v>170</v>
@@ -14853,22 +15105,22 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B186" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="C186" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="D186" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="E186" t="s">
         <v>17</v>
       </c>
       <c r="F186" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="G186" t="s">
         <v>20</v>
@@ -14880,10 +15132,10 @@
         <v>52</v>
       </c>
       <c r="J186" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="K186" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="M186" t="s">
         <v>170</v>
@@ -14894,22 +15146,22 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="B187" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="C187" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="D187" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="E187" t="s">
         <v>424</v>
       </c>
       <c r="F187" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="G187" t="s">
         <v>20</v>
@@ -14921,10 +15173,10 @@
         <v>52</v>
       </c>
       <c r="J187" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="K187" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="M187" t="s">
         <v>170</v>
@@ -14933,27 +15185,27 @@
         <v>171</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" ht="409">
       <c r="A188" t="s">
         <v>162</v>
       </c>
       <c r="B188" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="C188" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D188" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="E188" t="s">
         <v>30</v>
       </c>
       <c r="F188" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="G188" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="H188" t="s">
         <v>167</v>
@@ -14962,7 +15214,7 @@
         <v>52</v>
       </c>
       <c r="J188" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="L188" s="1" t="s">
         <v>54</v>
@@ -14976,22 +15228,22 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B189" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="C189" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="D189" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="E189" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="F189" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="G189" t="s">
         <v>20</v>
@@ -15003,7 +15255,7 @@
         <v>52</v>
       </c>
       <c r="J189" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="M189" t="s">
         <v>65</v>
@@ -15014,22 +15266,22 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="B190" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="C190" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D190" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E190" t="s">
         <v>424</v>
       </c>
       <c r="F190" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="G190" t="s">
         <v>20</v>
@@ -15041,7 +15293,7 @@
         <v>52</v>
       </c>
       <c r="J190" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="M190" t="s">
         <v>65</v>
@@ -15058,10 +15310,10 @@
         <v>843</v>
       </c>
       <c r="C191" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D191" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="E191" t="s">
         <v>136</v>
@@ -15076,10 +15328,10 @@
         <v>52</v>
       </c>
       <c r="J191" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="K191" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="M191" t="s">
         <v>65</v>
@@ -15090,16 +15342,16 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="B192" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="C192" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="D192" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="E192" t="s">
         <v>30</v>
@@ -15114,7 +15366,7 @@
         <v>52</v>
       </c>
       <c r="J192" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="M192" t="s">
         <v>65</v>
@@ -15125,22 +15377,22 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="B193" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="C193" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="D193" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="E193" t="s">
         <v>30</v>
       </c>
       <c r="F193" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="G193" t="s">
         <v>20</v>
@@ -15152,7 +15404,7 @@
         <v>52</v>
       </c>
       <c r="J193" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="M193" t="s">
         <v>65</v>
@@ -15161,24 +15413,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" ht="409">
       <c r="A194" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="B194" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="C194" t="s">
         <v>437</v>
       </c>
       <c r="D194" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="E194" t="s">
         <v>30</v>
       </c>
       <c r="F194" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="G194" t="s">
         <v>20</v>
@@ -15190,10 +15442,10 @@
         <v>52</v>
       </c>
       <c r="J194" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="K194" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="L194" s="1" t="s">
         <v>434</v>
@@ -15210,19 +15462,19 @@
         <v>86</v>
       </c>
       <c r="B195" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="C195" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="D195" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="E195" t="s">
         <v>59</v>
       </c>
       <c r="F195" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="G195" t="s">
         <v>20</v>
@@ -15234,10 +15486,10 @@
         <v>52</v>
       </c>
       <c r="J195" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="K195" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="M195" t="s">
         <v>65</v>
@@ -15248,22 +15500,22 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B196" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="C196" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="D196" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="E196" t="s">
         <v>136</v>
       </c>
       <c r="F196" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="G196" t="s">
         <v>20</v>
@@ -15275,10 +15527,10 @@
         <v>52</v>
       </c>
       <c r="J196" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="K196" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="M196" t="s">
         <v>65</v>
@@ -15287,24 +15539,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" ht="409">
       <c r="A197" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="B197" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="C197" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="D197" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="E197" t="s">
         <v>896</v>
       </c>
       <c r="F197" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="G197" t="s">
         <v>20</v>
@@ -15316,7 +15568,7 @@
         <v>52</v>
       </c>
       <c r="J197" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="L197" s="1" t="s">
         <v>434</v>
@@ -15330,22 +15582,22 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="B198" t="s">
         <v>28</v>
       </c>
       <c r="C198" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="D198" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="E198" t="s">
         <v>30</v>
       </c>
       <c r="F198" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="G198" t="s">
         <v>20</v>
@@ -15357,7 +15609,7 @@
         <v>52</v>
       </c>
       <c r="J198" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="M198" t="s">
         <v>65</v>
@@ -15371,19 +15623,19 @@
         <v>873</v>
       </c>
       <c r="B199" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="C199" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="D199" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="E199" t="s">
         <v>965</v>
       </c>
       <c r="F199" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="G199" t="s">
         <v>20</v>
@@ -15395,7 +15647,7 @@
         <v>52</v>
       </c>
       <c r="J199" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="M199" t="s">
         <v>65</v>
@@ -15404,24 +15656,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" ht="409">
       <c r="A200" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="B200" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="C200" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="D200" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="E200" t="s">
         <v>136</v>
       </c>
       <c r="F200" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="G200" t="s">
         <v>20</v>
@@ -15433,10 +15685,10 @@
         <v>52</v>
       </c>
       <c r="J200" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="K200" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="L200" s="1" t="s">
         <v>64</v>
@@ -15448,24 +15700,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" ht="225">
       <c r="A201" t="s">
         <v>334</v>
       </c>
       <c r="B201" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="C201" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="D201" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="E201" t="s">
         <v>17</v>
       </c>
       <c r="F201" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="G201" t="s">
         <v>20</v>
@@ -15477,7 +15729,7 @@
         <v>52</v>
       </c>
       <c r="J201" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="L201" s="1" t="s">
         <v>85</v>
@@ -15489,24 +15741,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" ht="409">
       <c r="A202" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="B202" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="C202" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="D202" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="E202" t="s">
         <v>458</v>
       </c>
       <c r="F202" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="G202" t="s">
         <v>20</v>
@@ -15518,7 +15770,7 @@
         <v>52</v>
       </c>
       <c r="J202" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="L202" s="1" t="s">
         <v>643</v>
@@ -15530,24 +15782,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" ht="345">
       <c r="A203" t="s">
         <v>347</v>
       </c>
       <c r="B203" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="C203" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="D203" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
       </c>
       <c r="F203" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="G203" t="s">
         <v>20</v>
@@ -15559,10 +15811,10 @@
         <v>22</v>
       </c>
       <c r="J203" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="K203" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="L203" s="1" t="s">
         <v>34</v>
@@ -15574,24 +15826,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" ht="345">
       <c r="A204" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="B204" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="C204" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="D204" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="E204" t="s">
         <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="G204" t="s">
         <v>20</v>
@@ -15603,7 +15855,7 @@
         <v>22</v>
       </c>
       <c r="J204" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="L204" s="1" t="s">
         <v>34</v>
@@ -15620,19 +15872,19 @@
         <v>86</v>
       </c>
       <c r="B205" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C205" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="D205" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="E205" t="s">
         <v>30</v>
       </c>
       <c r="F205" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="G205" t="s">
         <v>20</v>
@@ -15644,7 +15896,7 @@
         <v>22</v>
       </c>
       <c r="J205" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="M205" t="s">
         <v>25</v>
@@ -15653,24 +15905,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" ht="409">
       <c r="A206" t="s">
         <v>555</v>
       </c>
       <c r="B206" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="C206" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="D206" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
       </c>
       <c r="F206" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="G206" t="s">
         <v>20</v>
@@ -15682,10 +15934,10 @@
         <v>22</v>
       </c>
       <c r="J206" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="M206" t="s">
         <v>25</v>
@@ -15694,27 +15946,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" ht="409">
       <c r="A207" t="s">
         <v>41</v>
       </c>
       <c r="B207" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="C207" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="D207" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="E207" t="s">
         <v>136</v>
       </c>
       <c r="F207" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="G207" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="H207" t="s">
         <v>21</v>
@@ -15723,13 +15975,13 @@
         <v>22</v>
       </c>
       <c r="J207" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="K207" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="M207" t="s">
         <v>25</v>
@@ -15738,24 +15990,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" ht="345">
       <c r="A208" t="s">
         <v>549</v>
       </c>
       <c r="B208" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="C208" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="D208" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="E208" t="s">
         <v>129</v>
       </c>
       <c r="F208" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="G208" t="s">
         <v>20</v>
@@ -15767,10 +16019,10 @@
         <v>22</v>
       </c>
       <c r="J208" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="K208" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="L208" s="1" t="s">
         <v>34</v>
@@ -15782,24 +16034,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" ht="409">
       <c r="A209" t="s">
         <v>245</v>
       </c>
       <c r="B209" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C209" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="D209" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="E209" t="s">
         <v>896</v>
       </c>
       <c r="F209" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="G209" t="s">
         <v>20</v>
@@ -15811,7 +16063,7 @@
         <v>22</v>
       </c>
       <c r="J209" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="L209" s="1" t="s">
         <v>819</v>
@@ -15825,22 +16077,22 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="B210" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="C210" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="D210" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="E210" t="s">
         <v>30</v>
       </c>
       <c r="F210" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="G210" t="s">
         <v>20</v>
@@ -15852,7 +16104,7 @@
         <v>22</v>
       </c>
       <c r="J210" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="M210" t="s">
         <v>25</v>
@@ -15861,24 +16113,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" ht="345">
       <c r="A211" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="B211" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="C211" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="D211" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="E211" t="s">
         <v>30</v>
       </c>
       <c r="F211" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="G211" t="s">
         <v>20</v>
@@ -15890,7 +16142,7 @@
         <v>22</v>
       </c>
       <c r="J211" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="L211" s="1" t="s">
         <v>34</v>
@@ -15902,24 +16154,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" ht="345">
       <c r="A212" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="B212" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="C212" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="D212" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="E212" t="s">
         <v>182</v>
       </c>
       <c r="F212" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="G212" t="s">
         <v>20</v>
@@ -15931,7 +16183,7 @@
         <v>22</v>
       </c>
       <c r="J212" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="L212" s="1" t="s">
         <v>34</v>
@@ -15943,24 +16195,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" ht="345">
       <c r="A213" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="B213" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="C213" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="D213" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="E213" t="s">
         <v>129</v>
       </c>
       <c r="F213" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="G213" t="s">
         <v>20</v>
@@ -15972,7 +16224,7 @@
         <v>22</v>
       </c>
       <c r="J213" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="L213" s="1" t="s">
         <v>34</v>
@@ -15995,13 +16247,13 @@
         <v>457</v>
       </c>
       <c r="D214" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="E214" t="s">
         <v>458</v>
       </c>
       <c r="F214" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="G214" t="s">
         <v>20</v>
@@ -16013,7 +16265,7 @@
         <v>22</v>
       </c>
       <c r="J214" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="M214" t="s">
         <v>25</v>
@@ -16024,22 +16276,22 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="B215" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="C215" t="s">
         <v>506</v>
       </c>
       <c r="D215" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="E215" t="s">
         <v>391</v>
       </c>
       <c r="F215" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="G215" t="s">
         <v>20</v>
@@ -16051,7 +16303,7 @@
         <v>22</v>
       </c>
       <c r="J215" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="M215" t="s">
         <v>25</v>
@@ -16062,22 +16314,22 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="B216" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="C216" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="D216" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="E216" t="s">
         <v>129</v>
       </c>
       <c r="F216" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="G216" t="s">
         <v>20</v>
@@ -16100,19 +16352,19 @@
         <v>232</v>
       </c>
       <c r="B217" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="C217" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="D217" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="E217" t="s">
         <v>76</v>
       </c>
       <c r="F217" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G217" t="s">
         <v>20</v>
@@ -16124,7 +16376,7 @@
         <v>52</v>
       </c>
       <c r="J217" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="M217" t="s">
         <v>258</v>
@@ -16133,24 +16385,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" ht="409">
       <c r="A218" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="B218" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="C218" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="D218" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="E218" t="s">
         <v>136</v>
       </c>
       <c r="F218" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G218" t="s">
         <v>20</v>
@@ -16162,10 +16414,10 @@
         <v>52</v>
       </c>
       <c r="J218" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="K218" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="L218" s="1" t="s">
         <v>178</v>
@@ -16177,24 +16429,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" ht="409">
       <c r="A219" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="B219" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="C219" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="D219" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="E219" t="s">
         <v>30</v>
       </c>
       <c r="F219" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="G219" t="s">
         <v>20</v>
@@ -16206,7 +16458,7 @@
         <v>52</v>
       </c>
       <c r="J219" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="L219" s="1" t="s">
         <v>178</v>
@@ -16220,22 +16472,22 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="B220" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="C220" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="D220" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="E220" t="s">
         <v>129</v>
       </c>
       <c r="F220" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="G220" t="s">
         <v>20</v>
@@ -16247,7 +16499,7 @@
         <v>52</v>
       </c>
       <c r="J220" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="M220" t="s">
         <v>170</v>
@@ -16256,24 +16508,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" ht="409">
       <c r="A221" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="B221" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="C221" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="D221" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="E221" t="s">
         <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="G221" t="s">
         <v>20</v>
@@ -16285,7 +16537,7 @@
         <v>52</v>
       </c>
       <c r="J221" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="L221" s="1" t="s">
         <v>755</v>
@@ -16297,24 +16549,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" ht="409">
       <c r="A222" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="B222" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="C222" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="D222" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="E222" t="s">
         <v>30</v>
       </c>
       <c r="F222" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="G222" t="s">
         <v>20</v>
@@ -16335,24 +16587,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" ht="409">
       <c r="A223" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="B223" t="s">
         <v>908</v>
       </c>
       <c r="C223" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="D223" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="E223" t="s">
         <v>458</v>
       </c>
       <c r="F223" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="G223" t="s">
         <v>20</v>
@@ -16364,13 +16616,13 @@
         <v>52</v>
       </c>
       <c r="J223" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="K223" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="M223" t="s">
         <v>170</v>
@@ -16379,24 +16631,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" ht="409">
       <c r="A224" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="B224" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="C224" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="D224" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="E224" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="F224" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="G224" t="s">
         <v>20</v>
@@ -16417,24 +16669,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" ht="409">
       <c r="A225" t="s">
         <v>162</v>
       </c>
       <c r="B225" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="C225" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="D225" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="E225" t="s">
         <v>17</v>
       </c>
       <c r="F225" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="G225" t="s">
         <v>20</v>
@@ -16446,7 +16698,7 @@
         <v>52</v>
       </c>
       <c r="J225" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="L225" s="1" t="s">
         <v>203</v>
@@ -16460,22 +16712,22 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="B226" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="C226" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="D226" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="E226" t="s">
         <v>136</v>
       </c>
       <c r="F226" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="G226" t="s">
         <v>20</v>
@@ -16487,10 +16739,10 @@
         <v>52</v>
       </c>
       <c r="J226" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="K226" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="M226" t="s">
         <v>170</v>
@@ -16501,34 +16753,34 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="B227" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C227" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="D227" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="E227" t="s">
         <v>17</v>
       </c>
       <c r="F227" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="G227" t="s">
         <v>20</v>
       </c>
       <c r="H227" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I227" t="s">
         <v>52</v>
       </c>
       <c r="J227" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="M227" t="s">
         <v>55</v>
@@ -16537,42 +16789,42 @@
         <v>56</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" ht="409">
       <c r="A228" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="B228" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="C228" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="D228" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="E228" t="s">
         <v>142</v>
       </c>
       <c r="F228" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="G228" t="s">
         <v>20</v>
       </c>
       <c r="H228" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I228" t="s">
+        <v>52</v>
+      </c>
+      <c r="J228" t="s">
         <v>1436</v>
       </c>
-      <c r="I228" t="s">
-        <v>52</v>
-      </c>
-      <c r="J228" t="s">
-        <v>1443</v>
-      </c>
       <c r="K228" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="M228" t="s">
         <v>55</v>
@@ -16583,34 +16835,34 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="B229" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="C229" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="D229" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="E229" t="s">
         <v>136</v>
       </c>
       <c r="F229" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="G229" t="s">
         <v>20</v>
       </c>
       <c r="H229" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I229" t="s">
         <v>52</v>
       </c>
       <c r="K229" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="M229" t="s">
         <v>55</v>
@@ -16621,34 +16873,34 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="B230" t="s">
         <v>112</v>
       </c>
       <c r="C230" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="D230" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="E230" t="s">
         <v>17</v>
       </c>
       <c r="F230" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="G230" t="s">
         <v>20</v>
       </c>
       <c r="H230" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I230" t="s">
         <v>52</v>
       </c>
       <c r="J230" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="M230" t="s">
         <v>55</v>
@@ -16662,25 +16914,25 @@
         <v>106</v>
       </c>
       <c r="B231" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="C231" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="D231" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
       </c>
       <c r="F231" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="G231" t="s">
         <v>20</v>
       </c>
       <c r="H231" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I231" t="s">
         <v>52</v>
@@ -16694,34 +16946,34 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="B232" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="C232" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="D232" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="E232" t="s">
         <v>17</v>
       </c>
       <c r="F232" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="G232" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="H232" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I232" t="s">
         <v>52</v>
       </c>
       <c r="J232" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="M232" t="s">
         <v>55</v>
@@ -16732,28 +16984,28 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="B233" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="C233" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="D233" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="E233" t="s">
         <v>30</v>
       </c>
       <c r="F233" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="G233" t="s">
         <v>20</v>
       </c>
       <c r="H233" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I233" t="s">
         <v>52</v>
@@ -16770,31 +17022,31 @@
         <v>154</v>
       </c>
       <c r="B234" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="C234" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="D234" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="E234" t="s">
         <v>17</v>
       </c>
       <c r="F234" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="G234" t="s">
         <v>20</v>
       </c>
       <c r="H234" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I234" t="s">
         <v>52</v>
       </c>
       <c r="J234" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="M234" t="s">
         <v>55</v>
@@ -16803,36 +17055,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" ht="409">
       <c r="A235" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="B235" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="C235" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D235" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="E235" t="s">
         <v>30</v>
       </c>
       <c r="F235" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="G235" t="s">
         <v>20</v>
       </c>
       <c r="H235" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I235" t="s">
         <v>52</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="M235" t="s">
         <v>55</v>
@@ -16841,36 +17093,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" ht="409">
       <c r="A236" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="B236" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="C236" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D236" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="E236" t="s">
         <v>30</v>
       </c>
       <c r="F236" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="G236" t="s">
         <v>20</v>
       </c>
       <c r="H236" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I236" t="s">
         <v>52</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="M236" t="s">
         <v>55</v>
@@ -16884,31 +17136,31 @@
         <v>296</v>
       </c>
       <c r="B237" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="C237" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="D237" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="E237" t="s">
         <v>391</v>
       </c>
       <c r="F237" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="G237" t="s">
         <v>20</v>
       </c>
       <c r="H237" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I237" t="s">
         <v>52</v>
       </c>
       <c r="J237" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="M237" t="s">
         <v>55</v>
@@ -16919,34 +17171,34 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="B238" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="C238" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="D238" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
       </c>
       <c r="F238" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="G238" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="H238" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I238" t="s">
         <v>52</v>
       </c>
       <c r="J238" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="M238" t="s">
         <v>55</v>
@@ -16955,39 +17207,39 @@
         <v>56</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" ht="345">
       <c r="A239" t="s">
         <v>47</v>
       </c>
       <c r="B239" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="C239" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="D239" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="E239" t="s">
         <v>30</v>
       </c>
       <c r="F239" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="G239" t="s">
         <v>20</v>
       </c>
       <c r="H239" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I239" t="s">
         <v>52</v>
       </c>
       <c r="J239" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="M239" t="s">
         <v>55</v>
@@ -16996,30 +17248,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" ht="409">
       <c r="A240" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="B240" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C240" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="D240" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="E240" t="s">
         <v>30</v>
       </c>
       <c r="F240" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="G240" t="s">
         <v>20</v>
       </c>
       <c r="H240" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I240" t="s">
         <v>52</v>
@@ -17034,18 +17286,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" ht="409">
       <c r="A241" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="B241" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="C241" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="D241" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="E241" t="s">
         <v>228</v>
@@ -17054,13 +17306,13 @@
         <v>20</v>
       </c>
       <c r="H241" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I241" t="s">
         <v>52</v>
       </c>
       <c r="J241" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="L241" s="1" t="s">
         <v>364</v>
@@ -17072,36 +17324,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" ht="409">
       <c r="A242" t="s">
         <v>657</v>
       </c>
       <c r="B242" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="C242" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D242" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="E242" t="s">
         <v>30</v>
       </c>
       <c r="F242" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="G242" t="s">
         <v>20</v>
       </c>
       <c r="H242" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I242" t="s">
         <v>52</v>
       </c>
       <c r="J242" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="L242" s="1" t="s">
         <v>364</v>
@@ -17113,18 +17365,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" ht="409">
       <c r="A243" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="B243" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="C243" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="D243" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="E243" t="s">
         <v>136</v>
@@ -17133,16 +17385,16 @@
         <v>20</v>
       </c>
       <c r="H243" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I243" t="s">
         <v>52</v>
       </c>
       <c r="J243" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="M243" t="s">
         <v>55</v>
@@ -17153,25 +17405,25 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="B244" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="C244" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="D244" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="E244" t="s">
         <v>17</v>
       </c>
       <c r="G244" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="H244" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I244" t="s">
         <v>52</v>
@@ -17185,28 +17437,28 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
       <c r="B245" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="C245" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="D245" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
       </c>
       <c r="F245" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="G245" t="s">
         <v>20</v>
       </c>
       <c r="H245" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I245" t="s">
         <v>52</v>
@@ -17218,36 +17470,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" ht="409">
       <c r="A246" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="B246" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="C246" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="D246" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="E246" t="s">
         <v>136</v>
       </c>
       <c r="F246" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="G246" t="s">
         <v>20</v>
       </c>
       <c r="H246" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I246" t="s">
         <v>52</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="M246" t="s">
         <v>55</v>
@@ -17256,24 +17508,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" ht="360">
       <c r="A247" t="s">
         <v>649</v>
       </c>
       <c r="B247" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C247" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="D247" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="E247" t="s">
         <v>30</v>
       </c>
       <c r="F247" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
       <c r="G247" t="s">
         <v>20</v>
@@ -17285,7 +17537,7 @@
         <v>52</v>
       </c>
       <c r="J247" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>118</v>
@@ -17302,19 +17554,19 @@
         <v>232</v>
       </c>
       <c r="B248" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="C248" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="D248" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="E248" t="s">
         <v>379</v>
       </c>
       <c r="F248" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G248" t="s">
         <v>20</v>
@@ -17326,7 +17578,7 @@
         <v>52</v>
       </c>
       <c r="J248" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="M248" t="s">
         <v>258</v>
@@ -17340,19 +17592,19 @@
         <v>126</v>
       </c>
       <c r="B249" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="C249" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
       <c r="D249" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="E249" t="s">
         <v>136</v>
       </c>
       <c r="F249" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="G249" t="s">
         <v>20</v>
@@ -17364,7 +17616,7 @@
         <v>52</v>
       </c>
       <c r="J249" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="M249" t="s">
         <v>258</v>
@@ -17375,22 +17627,22 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B250" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="C250" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="D250" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="E250" t="s">
         <v>136</v>
       </c>
       <c r="F250" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="G250" t="s">
         <v>20</v>
@@ -17402,7 +17654,7 @@
         <v>52</v>
       </c>
       <c r="J250" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
       <c r="M250" t="s">
         <v>258</v>
@@ -17416,19 +17668,19 @@
         <v>900</v>
       </c>
       <c r="B251" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="C251" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="D251" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="E251" t="s">
         <v>136</v>
       </c>
       <c r="F251" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="G251" t="s">
         <v>20</v>
@@ -17440,10 +17692,10 @@
         <v>52</v>
       </c>
       <c r="J251" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="K251" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="M251" t="s">
         <v>258</v>
@@ -17454,22 +17706,22 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="B252" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="C252" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="D252" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="E252" t="s">
         <v>136</v>
       </c>
       <c r="F252" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="G252" t="s">
         <v>20</v>
@@ -17481,10 +17733,10 @@
         <v>52</v>
       </c>
       <c r="J252" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="K252" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="M252" t="s">
         <v>258</v>
@@ -17495,22 +17747,22 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="B253" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="C253" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="D253" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="E253" t="s">
         <v>182</v>
       </c>
       <c r="F253" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="G253" t="s">
         <v>20</v>
@@ -17522,7 +17774,7 @@
         <v>52</v>
       </c>
       <c r="J253" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="M253" t="s">
         <v>258</v>
@@ -17533,22 +17785,22 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="B254" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="C254" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="D254" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="E254" t="s">
         <v>136</v>
       </c>
       <c r="F254" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="G254" t="s">
         <v>20</v>
@@ -17560,7 +17812,7 @@
         <v>52</v>
       </c>
       <c r="J254" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="M254" t="s">
         <v>258</v>
@@ -17571,22 +17823,22 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="B255" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="C255" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="D255" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="E255" t="s">
         <v>136</v>
       </c>
       <c r="F255" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="G255" t="s">
         <v>20</v>
@@ -17598,10 +17850,10 @@
         <v>52</v>
       </c>
       <c r="J255" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="K255" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="M255" t="s">
         <v>258</v>
@@ -17612,22 +17864,22 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="B256" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="C256" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="D256" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="E256" t="s">
         <v>182</v>
       </c>
       <c r="F256" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="G256" t="s">
         <v>20</v>
@@ -17639,10 +17891,10 @@
         <v>52</v>
       </c>
       <c r="J256" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="K256" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="M256" t="s">
         <v>258</v>
@@ -17653,16 +17905,16 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="B257" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="C257" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="D257" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="E257" t="s">
         <v>17</v>
@@ -17677,10 +17929,10 @@
         <v>52</v>
       </c>
       <c r="J257" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="K257" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="M257" t="s">
         <v>258</v>
@@ -17691,22 +17943,22 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="B258" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="C258" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="D258" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="E258" t="s">
         <v>30</v>
       </c>
       <c r="F258" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="G258" t="s">
         <v>20</v>
@@ -17718,10 +17970,10 @@
         <v>52</v>
       </c>
       <c r="J258" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="K258" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="M258" t="s">
         <v>258</v>
@@ -17732,22 +17984,22 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="B259" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="C259" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="D259" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
       </c>
       <c r="F259" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="G259" t="s">
         <v>20</v>
@@ -17759,7 +18011,7 @@
         <v>52</v>
       </c>
       <c r="J259" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="M259" t="s">
         <v>258</v>
@@ -17770,16 +18022,16 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="B260" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="C260" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="D260" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="E260" t="s">
         <v>182</v>
@@ -17794,7 +18046,7 @@
         <v>52</v>
       </c>
       <c r="J260" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="M260" t="s">
         <v>258</v>
@@ -17805,22 +18057,22 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="B261" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="C261" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="D261" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="E261" t="s">
         <v>458</v>
       </c>
       <c r="F261" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="G261" t="s">
         <v>20</v>
@@ -17832,10 +18084,10 @@
         <v>52</v>
       </c>
       <c r="J261" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="K261" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="M261" t="s">
         <v>258</v>
@@ -17846,22 +18098,22 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="B262" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="C262" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D262" t="s">
         <v>1612</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1619</v>
       </c>
       <c r="E262" t="s">
         <v>458</v>
       </c>
       <c r="F262" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="G262" t="s">
         <v>20</v>
@@ -17873,10 +18125,10 @@
         <v>52</v>
       </c>
       <c r="J262" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="K262" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="M262" t="s">
         <v>258</v>
@@ -17887,16 +18139,16 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="B263" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="C263" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="D263" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="E263" t="s">
         <v>329</v>
@@ -17911,10 +18163,10 @@
         <v>52</v>
       </c>
       <c r="J263" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="K263" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="M263" t="s">
         <v>258</v>
@@ -17925,22 +18177,22 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="B264" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="C264" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="D264" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="E264" t="s">
         <v>458</v>
       </c>
       <c r="F264" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="G264" t="s">
         <v>20</v>
@@ -17952,10 +18204,10 @@
         <v>52</v>
       </c>
       <c r="J264" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="K264" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="M264" t="s">
         <v>258</v>
@@ -17966,22 +18218,22 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="B265" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="C265" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="D265" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
       </c>
       <c r="F265" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="G265" t="s">
         <v>20</v>
@@ -17993,10 +18245,10 @@
         <v>52</v>
       </c>
       <c r="J265" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="K265" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="M265" t="s">
         <v>258</v>
@@ -18007,22 +18259,22 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="B266" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="C266" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="D266" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
       </c>
       <c r="F266" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="G266" t="s">
         <v>20</v>
@@ -18034,7 +18286,7 @@
         <v>52</v>
       </c>
       <c r="J266" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="M266" t="s">
         <v>258</v>
@@ -18045,22 +18297,22 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="B267" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="C267" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="D267" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="E267" t="s">
         <v>329</v>
       </c>
       <c r="F267" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="G267" t="s">
         <v>20</v>
@@ -18072,10 +18324,10 @@
         <v>52</v>
       </c>
       <c r="J267" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="K267" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="M267" t="s">
         <v>258</v>
@@ -18086,22 +18338,22 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="B268" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="C268" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="D268" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="E268" t="s">
         <v>30</v>
       </c>
       <c r="F268" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="G268" t="s">
         <v>20</v>
@@ -18113,10 +18365,10 @@
         <v>52</v>
       </c>
       <c r="J268" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="K268" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="M268" t="s">
         <v>258</v>
@@ -18130,19 +18382,19 @@
         <v>326</v>
       </c>
       <c r="B269" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="C269" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="D269" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="E269" t="s">
         <v>329</v>
       </c>
       <c r="F269" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="G269" t="s">
         <v>20</v>
@@ -18154,7 +18406,7 @@
         <v>52</v>
       </c>
       <c r="J269" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="M269" t="s">
         <v>258</v>
@@ -18163,18 +18415,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" ht="409">
       <c r="A270" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="B270" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="C270" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="D270" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E270" t="s">
         <v>424</v>
@@ -18183,7 +18435,7 @@
         <v>20</v>
       </c>
       <c r="H270" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I270" t="s">
         <v>52</v>
@@ -18200,22 +18452,22 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="B271" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="C271" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="D271" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
       </c>
       <c r="F271" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="G271" t="s">
         <v>20</v>
@@ -18227,7 +18479,7 @@
         <v>52</v>
       </c>
       <c r="J271" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="M271" t="s">
         <v>170</v>
@@ -18236,24 +18488,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" ht="409">
       <c r="A272" t="s">
         <v>86</v>
       </c>
       <c r="B272" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="C272" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="D272" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="E272" t="s">
         <v>17</v>
       </c>
       <c r="F272" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="G272" t="s">
         <v>20</v>
@@ -18265,7 +18517,7 @@
         <v>52</v>
       </c>
       <c r="J272" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="L272" s="1" t="s">
         <v>643</v>
@@ -18277,24 +18529,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" ht="409">
       <c r="A273" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="B273" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="C273" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="D273" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
       </c>
       <c r="F273" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="G273" t="s">
         <v>20</v>
@@ -18306,13 +18558,13 @@
         <v>52</v>
       </c>
       <c r="J273" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="K273" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M273" t="s">
         <v>170</v>
@@ -18321,24 +18573,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" ht="409">
       <c r="A274" t="s">
         <v>57</v>
       </c>
       <c r="B274" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="C274" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="D274" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
       </c>
       <c r="F274" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="G274" t="s">
         <v>20</v>
@@ -18350,10 +18602,10 @@
         <v>52</v>
       </c>
       <c r="J274" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="K274" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="L274" s="1" t="s">
         <v>178</v>
@@ -18367,22 +18619,22 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="B275" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="C275" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="D275" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="E275" t="s">
         <v>17</v>
       </c>
       <c r="F275" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="G275" t="s">
         <v>20</v>
@@ -18394,10 +18646,10 @@
         <v>52</v>
       </c>
       <c r="J275" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="K275" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="M275" t="s">
         <v>170</v>
@@ -18408,22 +18660,22 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="B276" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="C276" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="D276" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="E276" t="s">
         <v>114</v>
       </c>
       <c r="F276" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="G276" t="s">
         <v>20</v>
@@ -18435,10 +18687,10 @@
         <v>52</v>
       </c>
       <c r="J276" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="K276" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="M276" t="s">
         <v>170</v>
@@ -18447,24 +18699,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" ht="409">
       <c r="A277" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="B277" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="C277" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="D277" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="E277" t="s">
         <v>30</v>
       </c>
       <c r="F277" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="G277" t="s">
         <v>20</v>
@@ -18476,7 +18728,7 @@
         <v>52</v>
       </c>
       <c r="J277" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="L277" s="1" t="s">
         <v>203</v>
@@ -18488,24 +18740,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" ht="409">
       <c r="A278" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="B278" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="C278" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="D278" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="E278" t="s">
         <v>17</v>
       </c>
       <c r="F278" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="G278" t="s">
         <v>20</v>
@@ -18517,10 +18769,10 @@
         <v>52</v>
       </c>
       <c r="J278" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="K278" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="L278" s="1" t="s">
         <v>203</v>
@@ -18532,24 +18784,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" ht="409">
       <c r="A279" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="B279" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="C279" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="D279" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="E279" t="s">
         <v>458</v>
       </c>
       <c r="F279" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="G279" t="s">
         <v>20</v>
@@ -18561,13 +18813,13 @@
         <v>52</v>
       </c>
       <c r="J279" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="K279" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="M279" t="s">
         <v>170</v>
@@ -18576,24 +18828,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" ht="409">
       <c r="A280" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="B280" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="C280" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="D280" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="E280" t="s">
         <v>17</v>
       </c>
       <c r="F280" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="G280" t="s">
         <v>20</v>
@@ -18605,7 +18857,7 @@
         <v>52</v>
       </c>
       <c r="K280" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="L280" s="1" t="s">
         <v>643</v>
@@ -18617,24 +18869,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" ht="409">
       <c r="A281" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="B281" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="C281" t="s">
         <v>686</v>
       </c>
       <c r="D281" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="E281" t="s">
         <v>17</v>
       </c>
       <c r="F281" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="G281" t="s">
         <v>20</v>
@@ -18646,13 +18898,13 @@
         <v>52</v>
       </c>
       <c r="J281" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="K281" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="M281" t="s">
         <v>170</v>
@@ -18663,22 +18915,22 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
       <c r="B282" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="C282" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="D282" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="E282" t="s">
         <v>458</v>
       </c>
       <c r="F282" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="G282" t="s">
         <v>20</v>
@@ -18690,10 +18942,10 @@
         <v>52</v>
       </c>
       <c r="J282" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="K282" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="M282" t="s">
         <v>170</v>
@@ -18702,24 +18954,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" ht="409">
       <c r="A283" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="B283" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="C283" t="s">
         <v>706</v>
       </c>
       <c r="D283" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E283" t="s">
         <v>17</v>
       </c>
       <c r="F283" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="G283" t="s">
         <v>20</v>
@@ -18731,10 +18983,10 @@
         <v>52</v>
       </c>
       <c r="J283" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="K283" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="L283" s="1" t="s">
         <v>178</v>
@@ -18746,24 +18998,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" ht="409">
       <c r="A284" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="B284" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="C284" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="D284" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="E284" t="s">
         <v>17</v>
       </c>
       <c r="F284" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="G284" t="s">
         <v>20</v>
@@ -18775,7 +19027,7 @@
         <v>52</v>
       </c>
       <c r="J284" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="L284" s="1" t="s">
         <v>755</v>
@@ -18789,22 +19041,22 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="B285" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="C285" t="s">
         <v>589</v>
       </c>
       <c r="D285" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="E285" t="s">
         <v>17</v>
       </c>
       <c r="F285" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="G285" t="s">
         <v>20</v>
@@ -18816,10 +19068,10 @@
         <v>52</v>
       </c>
       <c r="J285" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="K285" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="M285" t="s">
         <v>170</v>
@@ -18828,24 +19080,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" ht="409">
       <c r="A286" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="B286" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="C286" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
       <c r="D286" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="E286" t="s">
         <v>30</v>
       </c>
       <c r="F286" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="G286" t="s">
         <v>20</v>
@@ -18857,10 +19109,10 @@
         <v>52</v>
       </c>
       <c r="J286" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
       <c r="K286" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="L286" s="1" t="s">
         <v>178</v>
@@ -18874,22 +19126,22 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
       <c r="B287" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
       <c r="C287" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
       <c r="D287" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
       <c r="E287" t="s">
         <v>391</v>
       </c>
       <c r="F287" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
       <c r="G287" t="s">
         <v>20</v>
@@ -18901,7 +19153,7 @@
         <v>52</v>
       </c>
       <c r="J287" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
       <c r="M287" t="s">
         <v>170</v>
@@ -18910,24 +19162,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" ht="409">
       <c r="A288" t="s">
         <v>47</v>
       </c>
       <c r="B288" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="C288" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="D288" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="E288" t="s">
         <v>17</v>
       </c>
       <c r="F288" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="G288" t="s">
         <v>20</v>
@@ -18939,10 +19191,10 @@
         <v>52</v>
       </c>
       <c r="J288" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="K288" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="L288" s="1" t="s">
         <v>303</v>
@@ -18956,22 +19208,22 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="B289" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="C289" t="s">
         <v>349</v>
       </c>
       <c r="D289" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="E289" t="s">
         <v>17</v>
       </c>
       <c r="F289" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="G289" t="s">
         <v>20</v>
@@ -18983,7 +19235,7 @@
         <v>52</v>
       </c>
       <c r="J289" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
       <c r="M289" t="s">
         <v>170</v>
@@ -18992,18 +19244,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" ht="409">
       <c r="A290" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="B290" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="C290" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="D290" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="E290" t="s">
         <v>30</v>
@@ -19021,10 +19273,10 @@
         <v>52</v>
       </c>
       <c r="J290" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="K290" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="L290" s="1" t="s">
         <v>203</v>
@@ -19036,24 +19288,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" ht="409">
       <c r="A291" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
       <c r="B291" t="s">
         <v>820</v>
       </c>
       <c r="C291" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="D291" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="E291" t="s">
         <v>17</v>
       </c>
       <c r="F291" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="G291" t="s">
         <v>20</v>
@@ -19065,7 +19317,7 @@
         <v>52</v>
       </c>
       <c r="J291" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="L291" s="1" t="s">
         <v>178</v>
@@ -19079,22 +19331,22 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
       <c r="B292" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="C292" t="s">
         <v>367</v>
       </c>
       <c r="D292" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="E292" t="s">
         <v>157</v>
       </c>
       <c r="F292" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="G292" t="s">
         <v>20</v>
@@ -19106,7 +19358,7 @@
         <v>22</v>
       </c>
       <c r="J292" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="M292" t="s">
         <v>25</v>
@@ -19115,24 +19367,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" ht="409">
       <c r="A293" t="s">
         <v>196</v>
       </c>
       <c r="B293" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="C293" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="D293" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="E293" t="s">
         <v>30</v>
       </c>
       <c r="F293" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="G293" t="s">
         <v>20</v>
@@ -19144,7 +19396,7 @@
         <v>22</v>
       </c>
       <c r="J293" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="L293" s="1" t="s">
         <v>812</v>
@@ -19156,24 +19408,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" ht="345">
       <c r="A294" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="B294" t="s">
         <v>100</v>
       </c>
       <c r="C294" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="D294" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="E294" t="s">
         <v>30</v>
       </c>
       <c r="F294" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="G294" t="s">
         <v>20</v>
@@ -19185,7 +19437,7 @@
         <v>22</v>
       </c>
       <c r="J294" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="L294" s="1" t="s">
         <v>34</v>
@@ -19197,24 +19449,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" ht="345">
       <c r="A295" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="B295" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="C295" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="D295" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="E295" t="s">
         <v>30</v>
       </c>
       <c r="F295" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="G295" t="s">
         <v>20</v>
@@ -19226,7 +19478,7 @@
         <v>22</v>
       </c>
       <c r="J295" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="L295" s="1" t="s">
         <v>34</v>
@@ -19238,24 +19490,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" ht="345">
       <c r="A296" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
       <c r="B296" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="C296" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="D296" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
       <c r="E296" t="s">
         <v>30</v>
       </c>
       <c r="F296" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="G296" t="s">
         <v>20</v>
@@ -19267,7 +19519,7 @@
         <v>22</v>
       </c>
       <c r="J296" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="L296" s="1" t="s">
         <v>34</v>
@@ -19281,22 +19533,22 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="B297" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="C297" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="D297" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="E297" t="s">
         <v>59</v>
       </c>
       <c r="F297" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="G297" t="s">
         <v>20</v>
@@ -19308,7 +19560,7 @@
         <v>52</v>
       </c>
       <c r="J297" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="M297" t="s">
         <v>65</v>
@@ -19317,24 +19569,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" ht="409">
       <c r="A298" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="B298" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="C298" t="s">
         <v>746</v>
       </c>
       <c r="D298" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
       <c r="E298" t="s">
         <v>30</v>
       </c>
       <c r="F298" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="G298" t="s">
         <v>20</v>
@@ -19346,7 +19598,7 @@
         <v>52</v>
       </c>
       <c r="J298" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="L298" s="1" t="s">
         <v>755</v>
@@ -19358,18 +19610,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" ht="409">
       <c r="A299" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="B299" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="C299" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="D299" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="E299" t="s">
         <v>30</v>
@@ -19378,19 +19630,19 @@
         <v>20</v>
       </c>
       <c r="H299" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I299" t="s">
         <v>52</v>
       </c>
       <c r="J299" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
       <c r="K299" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="M299" t="s">
         <v>55</v>
@@ -19399,24 +19651,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" ht="409">
       <c r="A300" t="s">
         <v>162</v>
       </c>
       <c r="B300" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="C300" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
       <c r="D300" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
       <c r="E300" t="s">
         <v>30</v>
       </c>
       <c r="F300" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="G300" t="s">
         <v>20</v>
@@ -19428,7 +19680,7 @@
         <v>52</v>
       </c>
       <c r="J300" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="L300" s="1" t="s">
         <v>414</v>
@@ -19445,19 +19697,19 @@
         <v>133</v>
       </c>
       <c r="B301" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="C301" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="D301" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="E301" t="s">
         <v>391</v>
       </c>
       <c r="F301" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G301" t="s">
         <v>20</v>
@@ -19469,7 +19721,7 @@
         <v>52</v>
       </c>
       <c r="J301" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="M301" t="s">
         <v>65</v>
@@ -19483,19 +19735,19 @@
         <v>657</v>
       </c>
       <c r="B302" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="C302" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="D302" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="E302" t="s">
         <v>59</v>
       </c>
       <c r="F302" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="G302" t="s">
         <v>20</v>
@@ -19507,7 +19759,7 @@
         <v>52</v>
       </c>
       <c r="J302" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="M302" t="s">
         <v>65</v>
@@ -19518,22 +19770,22 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="B303" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="C303" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="D303" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="E303" t="s">
         <v>424</v>
       </c>
       <c r="F303" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="G303" t="s">
         <v>20</v>
@@ -19545,7 +19797,7 @@
         <v>52</v>
       </c>
       <c r="J303" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="M303" t="s">
         <v>170</v>
@@ -19554,24 +19806,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" ht="409">
       <c r="A304" t="s">
         <v>576</v>
       </c>
       <c r="B304" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="C304" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="D304" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="E304" t="s">
         <v>458</v>
       </c>
       <c r="F304" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="G304" t="s">
         <v>20</v>
@@ -19583,10 +19835,10 @@
         <v>52</v>
       </c>
       <c r="J304" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="M304" t="s">
         <v>170</v>
@@ -19595,33 +19847,33 @@
         <v>171</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" ht="409">
       <c r="A305" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="B305" t="s">
         <v>802</v>
       </c>
       <c r="C305" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="D305" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="E305" t="s">
         <v>136</v>
       </c>
       <c r="F305" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="H305" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I305" t="s">
         <v>52</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="M305" t="s">
         <v>55</v>
@@ -19632,31 +19884,31 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="B306" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="C306" t="s">
         <v>76</v>
       </c>
       <c r="D306" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="E306" t="s">
         <v>76</v>
       </c>
       <c r="F306" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="H306" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I306" t="s">
         <v>52</v>
       </c>
       <c r="J306" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="M306" t="s">
         <v>55</v>
@@ -19667,31 +19919,31 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="B307" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
       <c r="C307" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D307" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="E307" t="s">
         <v>30</v>
       </c>
       <c r="F307" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="H307" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I307" t="s">
         <v>52</v>
       </c>
       <c r="J307" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
       <c r="M307" t="s">
         <v>55</v>
@@ -19702,34 +19954,34 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="B308" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="C308" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
       <c r="D308" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
       <c r="E308" t="s">
         <v>458</v>
       </c>
       <c r="F308" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="H308" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I308" t="s">
         <v>52</v>
       </c>
       <c r="J308" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="K308" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="M308" t="s">
         <v>55</v>
@@ -19740,31 +19992,31 @@
     </row>
     <row r="309" spans="1:14">
       <c r="A309" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
       <c r="B309" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="C309" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D309" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="E309" t="s">
         <v>458</v>
       </c>
       <c r="F309" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="H309" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I309" t="s">
         <v>52</v>
       </c>
       <c r="J309" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="M309" t="s">
         <v>55</v>
@@ -19778,28 +20030,28 @@
         <v>649</v>
       </c>
       <c r="B310" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="C310" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="D310" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
       <c r="E310" t="s">
         <v>228</v>
       </c>
       <c r="F310" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="H310" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I310" t="s">
         <v>52</v>
       </c>
       <c r="J310" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="M310" t="s">
         <v>55</v>
@@ -19810,34 +20062,34 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="B311" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="C311" t="s">
         <v>373</v>
       </c>
       <c r="D311" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="E311" t="s">
         <v>17</v>
       </c>
       <c r="F311" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="H311" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I311" t="s">
         <v>52</v>
       </c>
       <c r="J311" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="K311" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="M311" t="s">
         <v>55</v>
@@ -19848,31 +20100,31 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="B312" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="C312" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="D312" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="E312" t="s">
         <v>17</v>
       </c>
       <c r="F312" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="H312" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I312" t="s">
         <v>52</v>
       </c>
       <c r="J312" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
       <c r="M312" t="s">
         <v>55</v>
@@ -19886,28 +20138,28 @@
         <v>938</v>
       </c>
       <c r="B313" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
       <c r="C313" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D313" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="E313" t="s">
         <v>17</v>
       </c>
       <c r="F313" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="H313" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I313" t="s">
         <v>52</v>
       </c>
       <c r="J313" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="M313" t="s">
         <v>55</v>
@@ -19918,31 +20170,31 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="B314" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="C314" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D314" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="E314" t="s">
         <v>17</v>
       </c>
       <c r="F314" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="H314" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I314" t="s">
         <v>52</v>
       </c>
       <c r="J314" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="M314" t="s">
         <v>55</v>
@@ -19959,25 +20211,25 @@
         <v>479</v>
       </c>
       <c r="C315" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D315" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="E315" t="s">
         <v>17</v>
       </c>
       <c r="F315" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="H315" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I315" t="s">
         <v>52</v>
       </c>
       <c r="J315" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="M315" t="s">
         <v>55</v>
@@ -19991,28 +20243,28 @@
         <v>723</v>
       </c>
       <c r="B316" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="C316" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D316" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="E316" t="s">
         <v>17</v>
       </c>
       <c r="F316" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="H316" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I316" t="s">
         <v>52</v>
       </c>
       <c r="J316" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="M316" t="s">
         <v>55</v>
@@ -20023,31 +20275,31 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="B317" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="C317" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="D317" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="E317" t="s">
         <v>136</v>
       </c>
       <c r="F317" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="H317" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I317" t="s">
         <v>52</v>
       </c>
       <c r="J317" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="M317" t="s">
         <v>55</v>
@@ -20058,31 +20310,31 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="B318" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="C318" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="D318" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="E318" t="s">
         <v>30</v>
       </c>
       <c r="F318" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="H318" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I318" t="s">
         <v>52</v>
       </c>
       <c r="J318" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="M318" t="s">
         <v>55</v>
@@ -20091,33 +20343,33 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" ht="409">
       <c r="A319" t="s">
         <v>365</v>
       </c>
       <c r="B319" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="C319" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="D319" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="E319" t="s">
         <v>17</v>
       </c>
       <c r="H319" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I319" t="s">
         <v>52</v>
       </c>
       <c r="J319" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="M319" t="s">
         <v>55</v>
@@ -20128,28 +20380,28 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="B320" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="C320" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D320" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="E320" t="s">
         <v>17</v>
       </c>
       <c r="H320" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I320" t="s">
         <v>52</v>
       </c>
       <c r="J320" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="M320" t="s">
         <v>55</v>
@@ -20163,28 +20415,28 @@
         <v>47</v>
       </c>
       <c r="B321" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="C321" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D321" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="E321" t="s">
         <v>17</v>
       </c>
       <c r="H321" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I321" t="s">
         <v>52</v>
       </c>
       <c r="J321" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="K321" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="M321" t="s">
         <v>55</v>
@@ -20198,25 +20450,25 @@
         <v>47</v>
       </c>
       <c r="B322" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="C322" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D322" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="E322" t="s">
         <v>17</v>
       </c>
       <c r="H322" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I322" t="s">
         <v>52</v>
       </c>
       <c r="J322" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="M322" t="s">
         <v>55</v>
@@ -20230,28 +20482,28 @@
         <v>47</v>
       </c>
       <c r="B323" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="C323" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="D323" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="E323" t="s">
         <v>17</v>
       </c>
       <c r="H323" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I323" t="s">
         <v>52</v>
       </c>
       <c r="J323" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="K323" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="M323" t="s">
         <v>55</v>
@@ -20265,25 +20517,25 @@
         <v>126</v>
       </c>
       <c r="B324" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="C324" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D324" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="E324" t="s">
         <v>17</v>
       </c>
       <c r="H324" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I324" t="s">
         <v>52</v>
       </c>
       <c r="J324" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
       <c r="M324" t="s">
         <v>55</v>
@@ -20297,25 +20549,25 @@
         <v>74</v>
       </c>
       <c r="B325" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="C325" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="D325" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="E325" t="s">
         <v>17</v>
       </c>
       <c r="H325" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I325" t="s">
         <v>52</v>
       </c>
       <c r="J325" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="M325" t="s">
         <v>55</v>
@@ -20326,31 +20578,31 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="B326" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="C326" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D326" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="E326" t="s">
         <v>17</v>
       </c>
       <c r="H326" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I326" t="s">
         <v>52</v>
       </c>
       <c r="J326" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="K326" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="M326" t="s">
         <v>55</v>
@@ -20364,28 +20616,28 @@
         <v>260</v>
       </c>
       <c r="B327" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="C327" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D327" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="E327" t="s">
         <v>17</v>
       </c>
       <c r="H327" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I327" t="s">
         <v>52</v>
       </c>
       <c r="J327" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="K327" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="M327" t="s">
         <v>55</v>
@@ -20396,31 +20648,31 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="B328" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="C328" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D328" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="E328" t="s">
         <v>17</v>
       </c>
       <c r="H328" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I328" t="s">
         <v>52</v>
       </c>
       <c r="J328" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="K328" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="M328" t="s">
         <v>55</v>
@@ -20431,28 +20683,28 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="B329" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="C329" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D329" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="E329" t="s">
         <v>17</v>
       </c>
       <c r="H329" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I329" t="s">
         <v>52</v>
       </c>
       <c r="J329" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="M329" t="s">
         <v>55</v>
@@ -20466,25 +20718,25 @@
         <v>684</v>
       </c>
       <c r="B330" t="s">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="C330" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D330" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="E330" t="s">
         <v>17</v>
       </c>
       <c r="H330" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I330" t="s">
         <v>52</v>
       </c>
       <c r="J330" t="s">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="M330" t="s">
         <v>55</v>
@@ -20501,22 +20753,22 @@
         <v>167</v>
       </c>
       <c r="C331" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="D331" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="E331" t="s">
         <v>17</v>
       </c>
       <c r="H331" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I331" t="s">
         <v>52</v>
       </c>
       <c r="J331" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="M331" t="s">
         <v>55</v>
@@ -20527,28 +20779,28 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="B332" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="C332" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="D332" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E332" t="s">
         <v>17</v>
       </c>
       <c r="H332" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I332" t="s">
         <v>52</v>
       </c>
       <c r="J332" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="M332" t="s">
         <v>55</v>
@@ -20562,28 +20814,28 @@
         <v>100</v>
       </c>
       <c r="B333" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="C333" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D333" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="E333" t="s">
         <v>17</v>
       </c>
       <c r="H333" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I333" t="s">
         <v>52</v>
       </c>
       <c r="J333" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="K333" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="M333" t="s">
         <v>55</v>
@@ -20594,22 +20846,22 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="B334" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="C334" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="D334" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="E334" t="s">
         <v>391</v>
       </c>
       <c r="F334" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="H334" t="s">
         <v>167</v>
@@ -20618,7 +20870,7 @@
         <v>52</v>
       </c>
       <c r="J334" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="M334" t="s">
         <v>170</v>
@@ -20629,25 +20881,25 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="B335" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="C335" t="s">
         <v>37</v>
       </c>
       <c r="D335" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E335" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="F335" t="s">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="H335" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I335" t="s">
         <v>52</v>
